--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,27 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://perceptio-my.sharepoint.com/personal/andres_giraldo_perceptio_net/Documents/Clientes/Doc's_BANCO/Python/App respuestas examen banco/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="11_AD4D2F04E46CFB4ACB3E20C165D3EB2C683EDF2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3524EB9F-08A1-4E87-910F-6F8996993271}"/>
+  <xr:revisionPtr revIDLastSave="755" documentId="11_AD4D2F04E46CFB4ACB3E20C165D3EB2C683EDF2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B9DD88A-AAD3-4FE4-94D5-CF8C4F74517C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>AWS_Arch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="321">
   <si>
     <t>Una empresa utilizará varias instancias EC2 para alojar varias aplicaciones de referencia. Se espera que las aplicaciones reciban un tráfico constante y relativamente bajo. Se espera que estas aplicaciones funcionen durante 3 años, momento en el que se evaluarán las aplicaciones para su actualización.
 ¿Qué tipo de EC2 cumplirá con este requisito considerando el costo como un factor adicional?</t>
@@ -46,12 +54,6 @@
     <t>no-cache/no-store</t>
   </si>
   <si>
-    <t>Seg_Dllo_SW</t>
-  </si>
-  <si>
-    <t>El hecho de incorporar componentes, códigos o funcionalidades exisistentes para disminuir la superficie de ataques en un sistema es un principio de diseño seguro</t>
-  </si>
-  <si>
     <t>Clean Architecture</t>
   </si>
   <si>
@@ -68,13 +70,1015 @@
   </si>
   <si>
     <t>Respuesta</t>
+  </si>
+  <si>
+    <t>Después de una reunión del Comité Directivo de TI, se le asignó la responsabilidad de configurar un entrono hibrido para los recursos informaticos de la empresa.
+Usted analiza los pros y los contras de varias tecnologías en función de los requisitos que se le dan. Los principales requisitos para impulsar esta selección son consideraciones de costos</t>
+  </si>
+  <si>
+    <t>AWS Direct connect</t>
+  </si>
+  <si>
+    <t>Una empresa internacional tiene muchos clientes en todo el mundo. Estos clientes necesitan transferir gigabytes a terabytes de datos de forma rápida y periódica en un bucket de S3.
+¿Qué función de S3 permitirá estas transferencias de datos a larga distancia de una manera segura y rapida?</t>
+  </si>
+  <si>
+    <t>Transfer Acceleration</t>
+  </si>
+  <si>
+    <t>Usted ha asumido la gestión de varias instancias en la empresa AWS. Usted desea revisar rápidamente los scripts utilizados para iniciar las instancias en tiempo de ejecución.
+Se puede utilizar un comando de URL para hacer esto.
+¿Qué puede agregar la URL http://169.254.169.254/latest/ para traer estos datos?</t>
+  </si>
+  <si>
+    <t>meta-data/</t>
+  </si>
+  <si>
+    <t>Una compañía de seguros está creando una aplicación que realizará análisis casi en tiempo real en enormes conjuntos de datos en el rango de terabytes y potencialmente incluso petabytes.
+La empresa está evaluando una opción de almacenamiento de datos de AWS.
+¿Qué servicio de AWS permitirá el almacenamiento de datos a escala de patabytes y también permitirá la consulta rápida de estos datos?</t>
+  </si>
+  <si>
+    <t>Redshift</t>
+  </si>
+  <si>
+    <t>Una nueva empresa emergente decide utilizar AWS para alojar su aplicación web. Configuran una VPC y dos subredes dentro de la VPC. También conectan un internet gateway a la VPC.
+En la primera subred, crean una instancia EC2 para alojar una aplicación web. Hay una ACL de red y un grupo de seguridad, que tienen la entrada y salida adecuadas hacua y desde internet.
+Hay una ruta en la tabla de enrutamiento hacia el internet gateway.
+Las instancias EC2 agregadas a la subred deben tener una dirección IP única a nivel mundial para garantizar el acceso a internet.
+¿Cuál no es una diercción IP única a nivel mundial?</t>
+  </si>
+  <si>
+    <t>Nro</t>
+  </si>
+  <si>
+    <t>AWS_Architecture</t>
+  </si>
+  <si>
+    <t>Una liga de béisbol profesional ha optado por utilizar una base de datos de documentos y valores clave para el almacenamiento, procesamiento y la entrega de datos.
+Muchos de los requisitos de datos implican un procesamiento de datos de alta velocidad, como un sistema de radar Doppler que muestra la posición de la pelota de béisbol 2000 veces por segundo.
+¿Qué almacenamiento de datos AWS puede cumplir con estos requisitos?</t>
+  </si>
+  <si>
+    <t>Está administrando el almacenamiento de datos para su empresa y hay muchos volúmenes de EBS. Sus lideres le han dado algunos requisitos nuevos.
+Es necesario monitorear ciertas métricas en los volúmenes de EBS y el equipo de bases de datos debe reiniciar una notificación por correo electrónico cuando se superen ciertos umbrales.
+¿Qué servicios AWS se pudedn configurar para cumplir con estos requisitos?</t>
+  </si>
+  <si>
+    <t>CloudWatch</t>
+  </si>
+  <si>
+    <t>Su empresa ha pasado por una auditoría en el almacenamiento de datos. Actualmente está almacenando datos históricos en Amazon Glacier.
+Uno de los resultados de la auditoría es que debe poder acceder de forma inmediata y por solicitud a una parte de esos datos históricos a los que se accede con poca frecuencia.
+¿Dónde puede almacenar estos datos para cumplir con este requisito?</t>
+  </si>
+  <si>
+    <t>Estándar S3</t>
+  </si>
+  <si>
+    <t>Su organización utiliza AWS CodeDeploy para implementaciones. Ahora está iniciando un proyecto en la plataforma AWS Lambda. Para sus implementaciones, se le ha dado el requisitos de realizar implementaciones blue-green.
+Cuando realiza implementaciones, desea dividir el tráfico, enviando un pequeño porcentaje del tráfico a la nueva versión de su aplicación.
+¿Qué configuración de implementación permitirá esta división del tráfico?</t>
+  </si>
+  <si>
+    <t>Enrutamiento ponderado (Weighted routing)</t>
+  </si>
+  <si>
+    <t>Su empresa planea migrar lentamente de un entorno de nube híbrida a un entorno de nube totalmente de AWS, y del lado de AWS se debe establecer un plan de recuperación ante desastres. La empresa desea establecer objetivos de tiempo de recuperación y puntos de recuperación (Recovery Time and Recovery Point), con un enfoque principal en el costo.
+Usted ha determinado y recomendará que la mejor configuración de DR para cumplir con el costo y los objetivos de RT / RP será tener una versión minima de la aplicación siempre ejecutándose en otra región.
+¿Qué plan de recuperación ante desatres de AWS cumplirá mejor con estos requisitos?</t>
+  </si>
+  <si>
+    <t>Pilot light</t>
+  </si>
+  <si>
+    <t>Se ha unido a una empresa de software recién formada como arquitecto de soluciones. Es una empresa pequeña y usted es el único empleado con experiencia en AWS.
+El propietario le ha solicitado sus recomendaciones para asegurarse de que los recursos de AWS se implementen para mantenerse de manera proactiva dentro del presupuesto.
+¿Qué servicio de AWS puede utilizar para asegurarse de no tener sobrecostos para sus recursos de AWS?</t>
+  </si>
+  <si>
+    <t>AWS Budgets</t>
+  </si>
+  <si>
+    <t>Usted trabaja como arquitecto líder de AWS para un gran proveedor de atención médica. Hay una necesidad de recopilar datos en tiempo real de los dispositivos de toda la organización.
+Los datos incluirán registros de logs y eventos de fuentes como servidores, computadoras de escritorio y dispositivos móviles. Los datos capturados inicialmente serán datos técnicos, pero el objetivo es expandir el esfuerzo para recopilar datos clinico en tiempo real de dispositivos portátiles utilizados por enfermeras y médicos.
+¿Qué servicio de AWS cumple mejor con este requisito?</t>
+  </si>
+  <si>
+    <t>Kinesis Data Streams</t>
+  </si>
+  <si>
+    <t>Tiene varias instancias EC2 en un auto scaling Group pasando por un network load balancer. Las instancias necesitarán acceso a S3 y DynamoDB.
+El auto scaling Group se creó a psrtir de una plantilla de inicio (launch template.)
+¿Qué se debe configurar en la plantilla de inicio para permitir que las instancias recién creadas accedan a S y DynamoDB?</t>
+  </si>
+  <si>
+    <t>Un rol de IAM asociado a instancias recién creadas con permiso para S3 y DinamoDB.</t>
+  </si>
+  <si>
+    <t>Usted sospecha que uno de los servicios AWS que utiliza su empresa no funciona.
+¿Cómo se puede comprovar el estado de este servicio?</t>
+  </si>
+  <si>
+    <t>AWS Personal Health Dashboard</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes componentes de la solicitud HTTP indica métodos HTTP como GET, POST, DELETE, PUT, etc.?</t>
+  </si>
+  <si>
+    <t>VERB</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes componentes de la respuesta HTTP contiene metadatos para el mensaje de respuesta HTTP como pares clave-valor?</t>
+  </si>
+  <si>
+    <t>Response Header</t>
+  </si>
+  <si>
+    <t>¿Qué método de clase RestTemplate realiza una operación HTTP HEAD?</t>
+  </si>
+  <si>
+    <t>headForHeaders ( String, Object…)</t>
+  </si>
+  <si>
+    <t>Restringir el uso de métodos POST y GET, facilitando que desde el método GET se pueda eliminar datos y no usar nombres de usuario, contraseñas o token de sesión en la URL, son prácticas que se deberían seguir para diseñar servicios web RESTful seguros.</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes métodos HTTP debería ser de naturaleza idempotente?</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes códigos de estado HTTP significa SIN CONTENIDO, cuando el cuerpo de la respuesta esta vacío, por ejemplo, una solicitud DELETE?</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes no es un método HTTP?</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>Seguridad en el desarrollo de SW</t>
+  </si>
+  <si>
+    <t>El hecho de incorporar componentes, códigos o funcionalidades existentes para disminuir la superficie de ataques en un sistema es un principio de diseño seguro.</t>
+  </si>
+  <si>
+    <t>La definición:
+"Debildad de un sistema de información, componente tecnológico, procesos o personas que pueden ser explotadas por una o más amenzas"
+¿A cuál de los siguientes tperminos corresponde?</t>
+  </si>
+  <si>
+    <t>Vulnerabilidad</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes principios de diseño establece que la concesión de permisos a una entidad no debe basarse únicamente en una sola condición?</t>
+  </si>
+  <si>
+    <t>Separación de privilegios</t>
+  </si>
+  <si>
+    <t>Cuando se intenta asegurar cada una de las capas que componen el sistema o servicio.
+¿Cuál de los siguientes sería el principio a aplicar?</t>
+  </si>
+  <si>
+    <t>Defensa en profundidad</t>
+  </si>
+  <si>
+    <t>"Eventualmente un sistema fallará, pero deberá hacerlo de forma segura. La pérdida de funcionalidad no debe implicar pérdida de la seguridad."
+¿A cuál de los siguientes principios de diseño seguro corresponde de la anterior afirmación?</t>
+  </si>
+  <si>
+    <t>Defensa profunda</t>
+  </si>
+  <si>
+    <t>Jose decide implementar el principio de diseño oscuro en la construcción de una aplicación financiera. Desafortunadamente sus diseños se han hecho públicos en la organización donde trabaja.
+¿Consideras que al seguir este principio la aplicación podría tener algún riesgo de seguridad?</t>
+  </si>
+  <si>
+    <t>SI, a pesar de tener un principio de diseño oscuro, podría tener vulnerabilidad no identificada.</t>
+  </si>
+  <si>
+    <t>Cuando se trata de datos. ¿Cuál de los siguientes mecanismos podriamos considerar defensivos? (Seleccione dos)</t>
+  </si>
+  <si>
+    <t>Cifrado y Túneles IPSec</t>
+  </si>
+  <si>
+    <t>Una pequeña startup está comenzando a configurar IAM para su organización. Se han creado los inicios de sesión de los usuarios y ahora el enfoque serán los permisos para esos usuarios.
+Un administrador comienza a crear politicas basadas en identidad.
+¿A qué elemento no se puede adjuntar una politca basada en identidad?</t>
+  </si>
+  <si>
+    <t>Recursos</t>
+  </si>
+  <si>
+    <t>Principio de desarrollo seguro para limitar los privilegios a una persona o proceso para completar una tarea por un tiempo determinado.</t>
+  </si>
+  <si>
+    <t>Menor privilegio</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes no corresponde a un principio de diseño seguro?</t>
+  </si>
+  <si>
+    <t>Diseño Abierto</t>
+  </si>
+  <si>
+    <t>Los mecanismos de seguridad no deben añadir dificultad al acceso de un recurso, o de ser necesario se debe ocultar la complejidad introducida por los mecanismos de seguridad.
+Dada esta afirmación. ¿A cuál de los siguientes principios de diseño seguro corresponde?</t>
+  </si>
+  <si>
+    <t>Eslabón más débil</t>
+  </si>
+  <si>
+    <t>"Representan los datos y objetos de valor del negocio sin llegar a ser un módulo compuesto sólo de estructuras de datos u objetos anémicos (sin comportamiento); sino que por el contrario es donde se recomienda expresar la lógica de negocio critica a través de funciones puras (sin efectos secundarios)."
+¿Cuál de los siguientes se relaciona con la definición anterior?</t>
+  </si>
+  <si>
+    <t>Entidades</t>
+  </si>
+  <si>
+    <t>En el contexto de Arquitectura de Software. ¿Qué es la complejidad esencial?</t>
+  </si>
+  <si>
+    <t>Es aquella que es inherente al problema que queremos solucionar, refleja la intención y el propósito por el cual fue creado el sistema y está expresada en los términos del dominio del problema.</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes podría considerarse un mecanismo para cruzar las fronteras arquitectónicas del desarrollo de software?</t>
+  </si>
+  <si>
+    <t>Todos los anteriores</t>
+  </si>
+  <si>
+    <t>¿Cuál es el objetivo de una arquitectura centrada en dominio?</t>
+  </si>
+  <si>
+    <t>Proteger y preservar en el largo plazo las reglas y procesos definidos por el negocio de los cambios en los detalles tecnológicos.</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes se podrían considerar un beneficio de una arquitectura centrada en el dominio, cómo la arquitectura limpia hexagonal?</t>
+  </si>
+  <si>
+    <t>Cuando hablamos de microservicios como estilo arquitectónico, podemos decir:</t>
+  </si>
+  <si>
+    <t>La 1 y 3 son verdaderas</t>
+  </si>
+  <si>
+    <t>Conocimiento DDD</t>
+  </si>
+  <si>
+    <t>(Los/la/el)__________ nos permite(n) contener el impacto del cambio al no depender de los detalles, invirtiendo el flujo de control y la dirección de dependencia.</t>
+  </si>
+  <si>
+    <t>Inversión de dependencias</t>
+  </si>
+  <si>
+    <t>¿Qué se busca cuando se realiza un ejercicio de modelado táctico?</t>
+  </si>
+  <si>
+    <t>¿Quiénes deberían necesariamente participar de las sesiones de modelado táctico?</t>
+  </si>
+  <si>
+    <t>Expertos de dominio (negocio) y Arquitecto de la solución</t>
+  </si>
+  <si>
+    <t>De acuerdo con DDD, completa la siguiente afirmación con la opción más precisa.
+"El lenguaje ubicuo se caracteriza por ser usado por los miembros _________, sin importar su rol"</t>
+  </si>
+  <si>
+    <t>Del equipo de proyecto en general</t>
+  </si>
+  <si>
+    <t>Diseñamos un concepto de dominio como un _________ cuando nos preocupamos por su individualidad, cuando distinguirlo de todos los demás objetos de un sistema es una restricción obligatoria. Este es algo único y se puede cambiar continuamente durante un largo período de tiempo. Los cambios pueden ser tan extensos que el objeto puede parecer muy diferente de los que era antes. Sin embargo, es el mismo objeto por identidad.</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>En relación con DDD podemos decir que los Domain Evenets:</t>
+  </si>
+  <si>
+    <t>Son una forma de modelar el comportamiento de un sistema tomando como énfasis los resultados y comportamientos de negocio que son claramente observables. Su implementación conreta puede variar.</t>
+  </si>
+  <si>
+    <t>En DDD, se debe capturar el terreno existente. Aquí se debe describir el presente y no el futuro imaginado.</t>
+  </si>
+  <si>
+    <t>Context Map</t>
+  </si>
+  <si>
+    <t>Los Value Objects son un componente fundamental para DDD, ¿cuál de los siguientes es comunmente modelado como un Value Object?</t>
+  </si>
+  <si>
+    <t>Todas las anteriores</t>
+  </si>
+  <si>
+    <t>EventStorming es un taller en el contexto de DDD en el cual:</t>
+  </si>
+  <si>
+    <t>Se identifican de forma colaborativa los eventos desde el punto de vista de las lineas de tiempo del negocio y posteriormente se agrupan y modelan tanto comandos como contextos delimitados.</t>
+  </si>
+  <si>
+    <t>¿Quién debería participar de las sesiones de modelado estratégico?</t>
+  </si>
+  <si>
+    <t>¿Cómo calificaría la siguiente afirmación?. DDD requiere el uso de una arquitectura de software de referencia y solo permite el uso de protocolos de comunicación asincronos.</t>
+  </si>
+  <si>
+    <t>Programación reactiva</t>
+  </si>
+  <si>
+    <t>Con respecto a el modelo de concurrencia tradicional Threads, Locks y memoria compartida se puede decir:</t>
+  </si>
+  <si>
+    <t>La 2 y 3 son verdaderas</t>
+  </si>
+  <si>
+    <t>¿Cuál de estas se considera una caracteristica de un sistema reactivo?</t>
+  </si>
+  <si>
+    <t>Debe de poder hacer uso de patrones de comunicación asincrona y orientada a mensajes de forma optima y eficiente</t>
+  </si>
+  <si>
+    <t>Con respecto a los términos Programación reactiva y Sistemas reactivos podemos decir:</t>
+  </si>
+  <si>
+    <t>La programación reactiva hace referencia a un estilo de programación principalmente basado en la manipulación de flujos de datos asincronos mediante patrones que vienen de la programación funcional.</t>
+  </si>
+  <si>
+    <t>En lo referente a la programación funcional, la inmutabilidad:</t>
+  </si>
+  <si>
+    <t>La programación reactiva se usará para disminuir la latencia y mejorar la responsividad cuando la respuesta a una petición involucra la obtención y agregación de información desde distintas fuentes.</t>
+  </si>
+  <si>
+    <t>¿Cuáles son algunos de los beneficios de los sistemas reactivos?</t>
+  </si>
+  <si>
+    <t>Alta responsividad, alta escalabilidad/elasticidad y tolerancia a fallos (resiliencia)</t>
+  </si>
+  <si>
+    <t>Cuando un sistema posee el modelo one-thread-per-request, esto implica:</t>
+  </si>
+  <si>
+    <t>¿Cuáles son las condiciones puras que deben cumplir las funciones puras?</t>
+  </si>
+  <si>
+    <t>Dados los mismos argumentos siempre retorna lo mismo y no tiene efectos secundarios</t>
+  </si>
+  <si>
+    <t>Según las definiciones del manifiesto de los sistemas reactivos, el medio que habilita los valores de dichos sistemas es:</t>
+  </si>
+  <si>
+    <t>La orientación a mensajes (asincronismo)</t>
+  </si>
+  <si>
+    <t>Para poder implementar sistemas concurrentes con el modelo threads and locks hay que hacer uso de la exclusión mutua o mutual exclusión</t>
+  </si>
+  <si>
+    <t>En referencia a la programación reactiva en Java se puede decir que:</t>
+  </si>
+  <si>
+    <t>En lo referente a sistemas distribuidos, el teorema CAP (Consistency, Availability, Partition Tolerance) afirma que:</t>
+  </si>
+  <si>
+    <t>Solo se pueden lograr 2 de las 3 propiedades completamente, con excepción de los casos en los que se tiene más de 3 replicas, en dichos casos se pueden alcanzar las 3 propiedades ya que se logra alta disponibilidad según los principios del teorema.</t>
+  </si>
+  <si>
+    <t>¿Cuándo se debe evaluar como primera opción el uso de programación reactiva?</t>
+  </si>
+  <si>
+    <t>Es un componente que manejará un alto nivel de concurrencia</t>
+  </si>
+  <si>
+    <t>Cuando hablamos de sistemas reactivos estamos hablando de:</t>
+  </si>
+  <si>
+    <t>Sistemas distribuidos con énfasis en alta tolerancia a fallos, elasticidad, alta eficiencia y responsividad, es decir sistemas distribuidos basados en principios solidos de ciencias de la computación</t>
+  </si>
+  <si>
+    <t>Principios SOLID</t>
+  </si>
+  <si>
+    <t>Cuando hablamos de arquitectura centradas en el dominio, (limpias, hexagonales9 podemos decir que el principio SOLID fundamental para separar lo esencial de lo accidental es:</t>
+  </si>
+  <si>
+    <t>Principio de inversión de dependencias</t>
+  </si>
+  <si>
+    <t>¿Cuál definición corresponde al Principio de sustitución de Liskov (Liskov subtitution principle)</t>
+  </si>
+  <si>
+    <t>Noción de que los objetos de un programa deberián ser reemplazables por instancias de sus subtipos sin alterar el correcto funcionamiento del programa</t>
+  </si>
+  <si>
+    <t>Según este principio "una clase debería tener una, y solo una, razón para cambiar". Hace referencia a:</t>
+  </si>
+  <si>
+    <t>Corresponde al principio SRP de SOLID</t>
+  </si>
+  <si>
+    <t>¿Cuál definición corresponde al Principio de inversión de la dependencia (Dependency inversion principle)</t>
+  </si>
+  <si>
+    <t>Noción de que se debe "depender de abstracciones, no depender de implementaciones"</t>
+  </si>
+  <si>
+    <t>¿Cuál definición corresponde al Principio de responsabilidad única (Single responsibility principle)?</t>
+  </si>
+  <si>
+    <t>Noción de que una unidad de software solo debería tener una sola razón para cambiar</t>
+  </si>
+  <si>
+    <t>Es cierto en referencia a los principios SOLID.</t>
+  </si>
+  <si>
+    <t>Son principios de buen diseño y mantenibilidad de software, principalmente provenientes del mundo de la orientación a objetos, pero aplicables de forma general.</t>
+  </si>
+  <si>
+    <t>Según este principio "Las interfaces deben ser especificas para un tipo de cliente".</t>
+  </si>
+  <si>
+    <t>Ninguna de las anteriores.</t>
+  </si>
+  <si>
+    <t>¿Cuál definición corresponde al Principio de segregación de la interfaz (Interface segregation principle)?</t>
+  </si>
+  <si>
+    <t>Noción de que muchas interfaces cliente especificas son mejores que una interfaz de propósito general.</t>
+  </si>
+  <si>
+    <t>¿Cuál no es un principio SOLID?</t>
+  </si>
+  <si>
+    <t>Inversion of control</t>
+  </si>
+  <si>
+    <t>¿Cuál definición corresponde al Principio de abierto/cerrado (Open/closed principle?</t>
+  </si>
+  <si>
+    <t>Noción de que las unidades de software deben estar abiertas para su extensión, pero cerradas para su modificación.</t>
+  </si>
+  <si>
+    <t>Según este principio "las clases que usas deberían estar abiertas para poder extenderse y cerradas para modificarse".</t>
+  </si>
+  <si>
+    <t>O - Open/Closed Principle</t>
+  </si>
+  <si>
+    <t>DevOps CI</t>
+  </si>
+  <si>
+    <t>La integración continua es una práctica en la cual los desarrolladores combinan los cambios en el código en un repositorio central de forma periódica, tras lo cual se ejecutan pruebas automáticas, con el objetivo de encontrar y arreglar errores  con mayor rapidez, mejorar la calidad del software y reducir el tiempo que se tarda en validar y publicar nuevas actualizaciones de software. Esta afirmación es:</t>
+  </si>
+  <si>
+    <t>Verdadera</t>
+  </si>
+  <si>
+    <t>Para los procesos de integración continua debe existir un pipeline en capacidad de compilar, ejecutar las pruebas y analizar el código de forma automática para las 3 ramas. Esta afirmación es:</t>
+  </si>
+  <si>
+    <t>Un equipo tiene la responsabilidad de desarrollar una nueva aplicación para pagos virtuales. Te han consultado cuántos pipelines se deben crear si han validado que una estrategis de mono-repositorio es aplicable al proyecto y tendrán 8 microservicios inicialmente. ¿Cuál sería tu respuesta?</t>
+  </si>
+  <si>
+    <t>Se deben crear 2 definiciones de pipeline, las cuales serán nombradas CI Y CD.</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes NO es una práctica de CI?</t>
+  </si>
+  <si>
+    <t>Construcción de escenarios</t>
+  </si>
+  <si>
+    <t>Como desarrollador de un equipo usted fue asignado para construir un pipeline de release. Al momento de realizar su primer despliegue, el release es abandonado. ¿Cuál podría ser la causa de que el release sea abandonado?</t>
+  </si>
+  <si>
+    <t>El release definition tiene tareas deshabilitadas y la política indica que no pueden haber tareas deshabilitadas en el pipeline.</t>
+  </si>
+  <si>
+    <t>¿Cuál de la las siguientes afirmación es la acertada con respecto al continuos Deployment y las buenas practicas?</t>
+  </si>
+  <si>
+    <t>Tanto las recetas de despliegue y los ambientes deben estar homologados para contar con despliegues predecibles, mantenibles y repetibles</t>
+  </si>
+  <si>
+    <t>Dirección IP privada</t>
+  </si>
+  <si>
+    <t>Proteger y aislar las reglas del negocio de un entorno cambiante como lo es la tecnología que la rodea</t>
+  </si>
+  <si>
+    <t>Usted ha sido asignado para le diseño y construcción de un pipeline de release para realizar despliegues a producción. ¿Cuáles de los siguientes stage deben configurarse?</t>
+  </si>
+  <si>
+    <t>Create OC.
+Deploy PROD.
+Smoke Test.
+User Validation.
+Rollback PROD.</t>
+  </si>
+  <si>
+    <t>Un equipo es nuevo trabajando con un repositorio para componentes de SQL. ¿Cuál afirmación es correcta con respecto al uso del repositorio?</t>
+  </si>
+  <si>
+    <t>Se debe crear una rama principal con el nombre de sql-branch para indicar dónde se encuentran los fuentes.</t>
+  </si>
+  <si>
+    <t>¿Qué es una estrategia de branching en los repositorio de Git?</t>
+  </si>
+  <si>
+    <t>Es una serie de reglas y estándares de nombramiento para el uso de las ramas y las integraciones del código fuente en el repositorio.</t>
+  </si>
+  <si>
+    <t>En el equipo desean implementar un mecanismo que permita realizar la revisión de los cambios y que tenga una aprobación por parte de un miembro del equipo para garantizar la integración de los nuevos cambios en el repositorio. ¿Cuál práctica le recomendarías para cumplir con el requerimiento?</t>
+  </si>
+  <si>
+    <t>Una practica de pair programming donde los miembros del equipo den el visto bueno del código de paraje de trabajo</t>
+  </si>
+  <si>
+    <t>¿Cuáles de los siguientes son principios usados para crear pruebas unitarias? (Seleccione DOS)</t>
+  </si>
+  <si>
+    <t>FIRST y AAA</t>
+  </si>
+  <si>
+    <t>¿Cuáles podrían ser las ramas principales que deben ser configuradas por Default un repositorios de GIT?</t>
+  </si>
+  <si>
+    <t>master, release, develop</t>
+  </si>
+  <si>
+    <t>¿En cuál proceso se involucra un administrador de dependencias en el ciclo de desarrollo y entrega de software?</t>
+  </si>
+  <si>
+    <t>Durante el proceso de compilación de software</t>
+  </si>
+  <si>
+    <t>Seleccione las afirmaciones correctas entre Entrega Continua (Continuous Delivery) e Implementación Continua (Continuous Deployment). Seleccione 3 opciones.</t>
+  </si>
+  <si>
+    <t>La entrega Continua (Continuous Delivery) es una práctica de desarrollo de software donde los cambios de código son construidos, probados y preparados automáticamente para su salida a producción y esta debe estar aprobada por el Product Owner.
+Para que exista implementación Continua (Continuous Deployment), antes debe haber Entrega Continua (Continuous Delivery), y en cualquiera de los casos debe haber una buena integración Continua (Continuous Integration).
+En la implementación Continua (Continuous Deployment), la premisa es ir liberando gradualmente, y si algún usuario tiene algún problema, entonces se hace rollback y el feedback llega al equipo desarrollador para que corrija el problema.</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes afirmaciones corresponde a la definición de un repositorio virtual?</t>
+  </si>
+  <si>
+    <t>Permiten almacenar las dependencias de cada proyecto o producto. En estos repositorios también se definen los repositorios build (repositorios donde se almacenan los componentes o artefactos compilados, estos se publican desde el pipeline de CD para ser desplegados a través del pipeline de RM), de los cuales el banco posee el código fuente.</t>
+  </si>
+  <si>
+    <t>¿Cuáles de las siguiente herramientas permite realizar análisis estático de código en el pipeline de integración continua? Seleccione dos opciones</t>
+  </si>
+  <si>
+    <t>¿Cuál es el objetivo clave de la integración continua?</t>
+  </si>
+  <si>
+    <t>Encontrar y arreglar errores con mayor rapidez, mejorar la calidad del software y reducir el tiempo que se tarda en validar y publicar nuevas actualizaciones de software.</t>
+  </si>
+  <si>
+    <t>SonarQube.
+Kiuwan.</t>
+  </si>
+  <si>
+    <t>¿Cuál es el primer análisis de código que debe se ejecutado?</t>
+  </si>
+  <si>
+    <t>Pruebas unitarias</t>
+  </si>
+  <si>
+    <t>¿Cuáles de los siguientes describen los principios FIRST? (Varias Respuestas)</t>
+  </si>
+  <si>
+    <t>Fast
+Repeteable, Self Validating
+Timely</t>
+  </si>
+  <si>
+    <t>¿Cuáles de los siguientes son pasos del principio AAA?(Varias Respuestas)</t>
+  </si>
+  <si>
+    <t>Arrange
+Act
+Assert</t>
+  </si>
+  <si>
+    <t>¿Qué es un sistema de control de versiones?</t>
+  </si>
+  <si>
+    <t>Son herramientas de software que ayudan a los equipos a gestionar los cambios en el código fuente a lo largo del tiempo.</t>
+  </si>
+  <si>
+    <t>¿Cuál es el enfoque de las pruebas de aceptación de forma automática en los pipeline de release y cómo se diseñan?</t>
+  </si>
+  <si>
+    <t>Se enfocan en verificar si el sistema es "apto para el uso". Se diseñan a partir de las definiciones de requerimientos, casos de uso y de los procesos de negocio definidos.</t>
+  </si>
+  <si>
+    <t>¿Cuáles de los siguientes son pasos del ciclo T.D.D.? (Varias Respuestas)</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los beneficios de usar T.D.D? (Seleccione DOS)</t>
+  </si>
+  <si>
+    <t>Obtener software tolerante al cambio.
+Recortar el tiempo de desarrollo.</t>
+  </si>
+  <si>
+    <t>¿Qué es T.D.D?</t>
+  </si>
+  <si>
+    <t>Técnica de desarrollo que consiste en crear pruebas unitarias que le mostrarán al desarrollador el código que debe escribir</t>
+  </si>
+  <si>
+    <t>La siguiente definición a que tipo de prueba hace referencia: "Son pruebas ligeras que validan la funcionalidad de un objeto de código y su lógica de negocio, son la mano derecha del desarrollador y normalmente son las que mayor cantidad de casos tienen construidos"</t>
+  </si>
+  <si>
+    <t>Pruebas de humo o smock Test</t>
+  </si>
+  <si>
+    <t>Por medio de las pruebas automatizadas se busca brindar velocidad a las entregas de valor al negocio.</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los beneficios de las pruebas continuas de forma automatizada?</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes describe mejor el patrón de diseño "The HumbleObject pattern"?</t>
+  </si>
+  <si>
+    <t>Este patrón le permite a los "unit tests" a separar las funcionalidades que son dificiles de probar de las que son fáciles de probar</t>
+  </si>
+  <si>
+    <t>¿Cuál es el propósito de BDD?</t>
+  </si>
+  <si>
+    <t>Plasmar la funcionalidad de la aplicación en terminos del negocio.</t>
+  </si>
+  <si>
+    <t>¿Cuáles son componentes de la arquitectura Docker?</t>
+  </si>
+  <si>
+    <t>Docker y contenedores</t>
+  </si>
+  <si>
+    <t>Host, Client, Registry</t>
+  </si>
+  <si>
+    <t>En la construcción de imágenes de contenedores, comando FROM se usa para:</t>
+  </si>
+  <si>
+    <t>Especificar la imagen base de la cual se va a partir para iniciar la construcción</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes comandos debería ejecutar para ver todos los contenedores en ejecución en Docker?</t>
+  </si>
+  <si>
+    <t>docker ps</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los pasos del ciclo de vida del contenedor Docker?</t>
+  </si>
+  <si>
+    <t>Build, pull, run</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes comandos se utiliza para detener un contenedor en ejecución?</t>
+  </si>
+  <si>
+    <t>docker stop container_id</t>
+  </si>
+  <si>
+    <t>¿Qué significa el comando FROM en un Dockerfile?</t>
+  </si>
+  <si>
+    <t>La imagen en la que se basa el contenedor</t>
+  </si>
+  <si>
+    <t>En Docker, ¿cómo se pueden enumerar tanto los contenedores que se encuentran en funcionamiento como los que están parados?</t>
+  </si>
+  <si>
+    <t>docker ps -a</t>
+  </si>
+  <si>
+    <t>Es cierto afirmar con respecto a contenedores Docker.</t>
+  </si>
+  <si>
+    <t>Docker proporciona un muy alto nivel de aislamiento entre contenedores, pero presenta cierto costo en el uso de recursos ya que requiere virtualización del sistema operativo de cada contenedor.</t>
+  </si>
+  <si>
+    <t>Con respecto al despliegue de aplicaciones en contenedores es cierto decir que:</t>
+  </si>
+  <si>
+    <t>Kubernetes orquesta contenedores los cuales vienen de imágenes que pueden ser construidas mediante Docker o alguna herramienta compatible con el formato de imágenes estandarizado.</t>
+  </si>
+  <si>
+    <t>________ es un servicio alojado en la nube que proporciona capacidades de almacenamiento y distribución para imágenes de contenedores públicas y privadas.</t>
+  </si>
+  <si>
+    <t>Docker Cloud Orquestrator</t>
+  </si>
+  <si>
+    <t>Cuando se usan contenedores Docker podemos afirmar:</t>
+  </si>
+  <si>
+    <t>Se crear una instancia virtualizada nueva a nivel de SO por cada contenedor en ejecución para garantizar el aislamiento a través del Hypervisor y los namespaces.</t>
+  </si>
+  <si>
+    <t>Un Dockerfile es:</t>
+  </si>
+  <si>
+    <t>El archivo de texto que contiene todos los comandos para crear una nueva imagen</t>
+  </si>
+  <si>
+    <t>¿Qué opción inicia un contenedor Docker interactivo de centos con sesión de bash shell?</t>
+  </si>
+  <si>
+    <t>docker run -it centos /bin/bash</t>
+  </si>
+  <si>
+    <t>Para obtener el número de página actual, se puede usar una de las siguientes variables del sistema</t>
+  </si>
+  <si>
+    <t>ABAP</t>
+  </si>
+  <si>
+    <t>sy-pagno</t>
+  </si>
+  <si>
+    <t>¿Cuál es la diferencia entre "Like" y "type"</t>
+  </si>
+  <si>
+    <t>"Type" se refiere al tipo de datos existente, mientras que "Like" se refiere al objeto de datos existente</t>
+  </si>
+  <si>
+    <t>¿Para que se usa "pretty printer"?</t>
+  </si>
+  <si>
+    <t>"pretty printer" se utiliza para formatear el código ABAP</t>
+  </si>
+  <si>
+    <t>¿En qué situación usas OOABAP?</t>
+  </si>
+  <si>
+    <t>OOABAP se utiliza para desarrollar aplicaciones BSP / PCUI</t>
+  </si>
+  <si>
+    <t>¿Cuándo utilizamos "End-of-selection"?</t>
+  </si>
+  <si>
+    <t>"End-of-selection" se usa para mejorar la generación, la funcionalidad y la legibilidaad de los informes</t>
+  </si>
+  <si>
+    <t>¿Para que sirve ALV en ABAP?</t>
+  </si>
+  <si>
+    <t>Para mejorar la generación, la funcionalidad y la legibilidad de informes</t>
+  </si>
+  <si>
+    <t>¿Cuál es la diferencia entre workarea y tabla?</t>
+  </si>
+  <si>
+    <t>La tabla es pertenece a una base de datos y la workarea no.</t>
+  </si>
+  <si>
+    <t>¿Cómo se puede formatear los datos antes de escribir una declaración en un informe?</t>
+  </si>
+  <si>
+    <t>Al ejecutar la funcion clear de ABAP Query</t>
+  </si>
+  <si>
+    <t>¿Cuándo es preferible trabajar con LSMW en SAP?</t>
+  </si>
+  <si>
+    <t>Cuando se requiere migrar una cantidad grande de datos.</t>
+  </si>
+  <si>
+    <t>¿Cuáles son los componentes de SAP scripts?</t>
+  </si>
+  <si>
+    <t>Standard text, Layaut sets, Creating forms</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes corresponde a los componentes de ABAP/4 Query?</t>
+  </si>
+  <si>
+    <t>¿Cuál de las Siguientes se podría considerar una ventaja de ABAP/4 Query?</t>
+  </si>
+  <si>
+    <t>Ha sido diseñaado para usuarios con poco o ningun conocimiento de la programación ABAP</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza ABAP/4 Query en Sap</t>
+  </si>
+  <si>
+    <t>ABAP Query se utiliza para crear informes que aún no estan presentes en el sistema SAP</t>
+  </si>
+  <si>
+    <t>¿Cuál es el uso de los "Smart Forms"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se utilizan para crear </t>
+  </si>
+  <si>
+    <t>¿Para que se utilizan los "foreign keys"?</t>
+  </si>
+  <si>
+    <t>se utilizan para garantizar la coherencia de los datos</t>
+  </si>
+  <si>
+    <t>¿Qué es euna relación de "foreign keys"?</t>
+  </si>
+  <si>
+    <t>Es una relación entre tablas y debe definirse explícitamente a nivel de campo</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes es correcta para las tablas internas?</t>
+  </si>
+  <si>
+    <t>¿Para que se usan las tablas internas?</t>
+  </si>
+  <si>
+    <t>Las tablas internas se utilizan para filtrar datos que se mueven de una estructura fija a otra</t>
+  </si>
+  <si>
+    <t>Si una empresa decide adaptar sus sistemas y procedimientos a SAP, tendrá que cargar un gran volumen de datos que forman parte de sus sistemas legacy en el sistema SAP.¿Cuál de las siguientes corresponde a una técnica para realizar esta migración?</t>
+  </si>
+  <si>
+    <t>Ninguna de las anteriores</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes es correcta para BDC? Seleccione dos</t>
+  </si>
+  <si>
+    <t>¿Cual de las siguientes afirmaciones es correcta para las tablas agrupadas?</t>
+  </si>
+  <si>
+    <t>Las tablas agrupadas en el diccionario tienen una relación de varios a uno con la tabla en la base de datos</t>
+  </si>
+  <si>
+    <t>¿Cual de las siguientes afirmaciones es correcta para las tablas transparentes?</t>
+  </si>
+  <si>
+    <t>En el diccionario de datos estas tablas tienen una relación de uno a uno con la tabla en la base de datos.</t>
+  </si>
+  <si>
+    <t>¿Cuales de los siguientes No es un objeto del diccionario de ABAP?</t>
+  </si>
+  <si>
+    <t>Ninguna de la anteriores</t>
+  </si>
+  <si>
+    <t>¿Qué es el diccionario de datos ABAP?</t>
+  </si>
+  <si>
+    <t>Es una herramienta del banco de trabajo ABAP y es un repositorio central para las definiciones de datos en el sistema SAP:</t>
+  </si>
+  <si>
+    <t>¿En el diccionario de datos en qué nivel se puede asignar valores fijos en ABAP?</t>
+  </si>
+  <si>
+    <t>Nivel Domain</t>
+  </si>
+  <si>
+    <t>¿Qué evento se utiliza para navegar de una lista básica a una lista secundaria?</t>
+  </si>
+  <si>
+    <t>At line-selection</t>
+  </si>
+  <si>
+    <t>¿Qué es SAP ABAP?</t>
+  </si>
+  <si>
+    <t>SAP ABAP es un lenguaje de alto nivel que se usa para desarrollar aplicaiones empresariales para grandes empresas e instituciones financieras en la plataforma SAP.</t>
+  </si>
+  <si>
+    <t>Como salida, medium SAP smart forms soporta:</t>
+  </si>
+  <si>
+    <t>Printer, fax, E-mail, internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">las vistas de proyección de ABAP pueden ser creadas usando la transacción </t>
+  </si>
+  <si>
+    <t>SE11</t>
+  </si>
+  <si>
+    <t>CALL TRANSACTION recopila mensajes en tablas del tipo:</t>
+  </si>
+  <si>
+    <t>BDCMSGCOLL</t>
+  </si>
+  <si>
+    <t>La diferencia entre tables y templates en términos de Smart form es:</t>
+  </si>
+  <si>
+    <t>Tables puede generar saltos de página automáticos. Mientras que templates no</t>
+  </si>
+  <si>
+    <t>El comando valido para llamar un reporte ABAP de otro programa de reporte es:</t>
+  </si>
+  <si>
+    <t>Bubmit&lt;report name&gt;</t>
+  </si>
+  <si>
+    <t>¿Si se desea iniciar el depurador al hacer clic en un botón, qué comando se debe colocar en el command field?</t>
+  </si>
+  <si>
+    <t>/h</t>
+  </si>
+  <si>
+    <t>el comando valido para establecer el área de memoria de ABAP es:</t>
+  </si>
+  <si>
+    <t>SET/GET</t>
+  </si>
+  <si>
+    <t>Cual es verdadera respecto a Screen y Sub screen.</t>
+  </si>
+  <si>
+    <t>Un sub screen puede ser llamado por un screen o por otro sub screen.</t>
+  </si>
+  <si>
+    <t>1 1
+2 1
+3 1</t>
+  </si>
+  <si>
+    <t>BDC: Comunicación de datos por lotes.
+BDC: Técnica que se utiliza con datos heredados o carga de datos en el sistema SAP que no se actualiza en los sistemas SAP</t>
+  </si>
+  <si>
+    <t>el uso principal de las tablas internas es de almacenar y formatear datos de una tabla de base de datos dentro de un programa</t>
+  </si>
+  <si>
+    <t>La salida del siguiente código de programa escrito en ABAP sería: 
+do 3 times.
+Write:/5 sy-index, 20 sy-tabix.
+ENDDO</t>
+  </si>
+  <si>
+    <t>La salida del siguiente código de programa escrito en ABAP sería:
+Data: a(3), b(3).
+A = '123'.
+B = '456'.
+Perform abc using a b.
+Write a.
+Write b.
+Form abc using x value(y).
+X = 'abc'.
+Y = 'xyz'.
+Endform.</t>
+  </si>
+  <si>
+    <t>abc 456</t>
+  </si>
+  <si>
+    <t>La salida del siguiente código de programa escrito en ABAP sería:
+DATA: matnr LIKE mara-matnr.
+TOP_OF_PAGE.
+Matnr = 'COMPUTER'.
+WRITE: 'Welcome'.
+END_OF_SELECTION.
+WRITE: matnr.</t>
+  </si>
+  <si>
+    <t>Welcome
+COMPUTER</t>
+  </si>
+  <si>
+    <t>Database adjustment significa:</t>
+  </si>
+  <si>
+    <t>Sincronizar el diccionario y la base de datos</t>
+  </si>
+  <si>
+    <t>En la programación de ABAP orientado a objetos, una clase final significa que:</t>
+  </si>
+  <si>
+    <t>No habrá herencia posterior</t>
+  </si>
+  <si>
+    <t>ABAP soporta una de estas técnicas de herencia</t>
+  </si>
+  <si>
+    <t>Jerárquica</t>
+  </si>
+  <si>
+    <t>Un tipo Idoc en ABAP contiene:</t>
+  </si>
+  <si>
+    <t>Datos e información de control para la transferencia de mensajes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,16 +1102,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,24 +1131,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,74 +1466,2301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.36328125" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="55.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="61.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="122" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="115" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="180.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>50</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>51</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>52</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>53</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>54</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="b">
+    </row>
+    <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>55</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>56</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>57</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>58</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>59</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="115" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
+    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>60</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>61</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>62</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>63</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>64</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>65</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>66</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>67</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>68</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>69</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>70</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>71</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>72</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>73</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>74</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>75</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>76</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>77</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="6">
+        <v>78</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>79</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A79" s="6">
+        <v>80</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>81</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="6">
+        <v>82</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>83</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A83" s="6">
+        <v>84</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>85</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="6">
+        <v>86</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>87</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
+        <v>88</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>89</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="6">
+        <v>90</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>91</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="6">
+        <v>92</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>93</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="6">
+        <v>94</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>95</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="6">
+        <v>96</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>97</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="6">
+        <v>98</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>99</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="6">
+        <v>100</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>101</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="6">
+        <v>102</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>103</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="6">
+        <v>104</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>105</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="6">
+        <v>106</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D105" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>107</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="6">
+        <v>108</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
+        <v>109</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="6">
+        <v>110</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>111</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="6">
+        <v>112</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
+        <v>113</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A113" s="6">
+        <v>114</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>115</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="6">
+        <v>116</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
+        <v>117</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="6">
+        <v>118</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>119</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="6">
+        <v>120</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>121</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A121" s="6">
+        <v>122</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
+        <v>123</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A123" s="6">
+        <v>124</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
+        <v>125</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="6">
+        <v>126</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>127</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="6">
+        <v>128</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="2">
+        <v>129</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129" s="6">
+        <v>130</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
+        <v>131</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="6">
+        <v>132</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
+        <v>133</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A133" s="6">
+        <v>134</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
+        <v>135</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="6">
+        <v>136</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
+        <v>137</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="6">
+        <v>138</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A138" s="2">
+        <v>139</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A139" s="6">
+        <v>140</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="2">
+        <v>141</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="6">
+        <v>142</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A142" s="2">
+        <v>143</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A143" s="6">
+        <v>144</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="2">
+        <v>145</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="6">
+        <v>146</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A146" s="2">
+        <v>147</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="6">
+        <v>148</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A148" s="2">
+        <v>149</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="6">
+        <v>150</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A150" s="2">
+        <v>151</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="6">
+        <v>152</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="2">
+        <v>153</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="6">
+        <v>154</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A154" s="2">
+        <v>155</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="6">
+        <v>156</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A156" s="2">
+        <v>157</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="6">
+        <v>158</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="A158" s="2">
+        <v>159</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="6">
+        <v>160</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="2">
+        <v>161</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" s="6">
+        <v>162</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="2">
+        <v>163</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="6">
+        <v>164</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://perceptio-my.sharepoint.com/personal/andres_giraldo_perceptio_net/Documents/Clientes/Doc's_BANCO/Python/App respuestas examen banco/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="11_AD4D2F04E46CFB4ACB3E20C165D3EB2C683EDF2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B9DD88A-AAD3-4FE4-94D5-CF8C4F74517C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7DBC310-C092-45A6-A2A7-D6E786FE687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -880,18 +880,9 @@
     <t>¿Cuál es el uso de los "Smart Forms"?</t>
   </si>
   <si>
-    <t xml:space="preserve">Se utilizan para crear </t>
-  </si>
-  <si>
-    <t>¿Para que se utilizan los "foreign keys"?</t>
-  </si>
-  <si>
     <t>se utilizan para garantizar la coherencia de los datos</t>
   </si>
   <si>
-    <t>¿Qué es euna relación de "foreign keys"?</t>
-  </si>
-  <si>
     <t>Es una relación entre tablas y debe definirse explícitamente a nivel de campo</t>
   </si>
   <si>
@@ -904,9 +895,6 @@
     <t>Las tablas internas se utilizan para filtrar datos que se mueven de una estructura fija a otra</t>
   </si>
   <si>
-    <t>Si una empresa decide adaptar sus sistemas y procedimientos a SAP, tendrá que cargar un gran volumen de datos que forman parte de sus sistemas legacy en el sistema SAP.¿Cuál de las siguientes corresponde a una técnica para realizar esta migración?</t>
-  </si>
-  <si>
     <t>Ninguna de las anteriores</t>
   </si>
   <si>
@@ -937,9 +925,6 @@
     <t>Es una herramienta del banco de trabajo ABAP y es un repositorio central para las definiciones de datos en el sistema SAP:</t>
   </si>
   <si>
-    <t>¿En el diccionario de datos en qué nivel se puede asignar valores fijos en ABAP?</t>
-  </si>
-  <si>
     <t>Nivel Domain</t>
   </si>
   <si>
@@ -959,9 +944,6 @@
   </si>
   <si>
     <t>Printer, fax, E-mail, internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">las vistas de proyección de ABAP pueden ser creadas usando la transacción </t>
   </si>
   <si>
     <t>SE11</t>
@@ -1015,35 +997,7 @@
     <t>el uso principal de las tablas internas es de almacenar y formatear datos de una tabla de base de datos dentro de un programa</t>
   </si>
   <si>
-    <t>La salida del siguiente código de programa escrito en ABAP sería: 
-do 3 times.
-Write:/5 sy-index, 20 sy-tabix.
-ENDDO</t>
-  </si>
-  <si>
-    <t>La salida del siguiente código de programa escrito en ABAP sería:
-Data: a(3), b(3).
-A = '123'.
-B = '456'.
-Perform abc using a b.
-Write a.
-Write b.
-Form abc using x value(y).
-X = 'abc'.
-Y = 'xyz'.
-Endform.</t>
-  </si>
-  <si>
     <t>abc 456</t>
-  </si>
-  <si>
-    <t>La salida del siguiente código de programa escrito en ABAP sería:
-DATA: matnr LIKE mara-matnr.
-TOP_OF_PAGE.
-Matnr = 'COMPUTER'.
-WRITE: 'Welcome'.
-END_OF_SELECTION.
-WRITE: matnr.</t>
   </si>
   <si>
     <t>Welcome
@@ -1071,7 +1025,34 @@
     <t>Un tipo Idoc en ABAP contiene:</t>
   </si>
   <si>
-    <t>Datos e información de control para la transferencia de mensajes</t>
+    <t>Estructura idoc</t>
+  </si>
+  <si>
+    <t>Se utilizan para crear y mantener formularios para impresión masiva en sistemas SAP</t>
+  </si>
+  <si>
+    <t>¿Para que se utilizan las "foreign keys"?</t>
+  </si>
+  <si>
+    <t>¿Qué es una relación de "foreign keys"?</t>
+  </si>
+  <si>
+    <t>Si una empresa decide adaptar sus sistemas y procedimientos a SAP, tendrá que cargar un gran volumen de datos que forman parte de sus sistemas legacy en el sistema SAP. ¿Cual de las siguientes corresponde a una técnica para realizar esta migración?</t>
+  </si>
+  <si>
+    <t>¿En el diccionario de datos en qué nivel se pueden asignar valores fijos en ABAP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">las vistas de proyección de ABAP pueden ser creadas usando esta transacción </t>
+  </si>
+  <si>
+    <t>La salida del siguiente código de programa escrito en ABAP sería: do 3 times.  Write:/5 sy-index, 20 sy-tabix. ENDDO.</t>
+  </si>
+  <si>
+    <t>La salida del siguiente código de programa escrito en ABAP sería: Data: a(3), b(3). A = '123'. B = '456'. Perform abc using a b. Write a. Write b. Form abc using x value(y). X = 'abc'. Y = 'xyz'. Endform.</t>
+  </si>
+  <si>
+    <t>La salida del siguiente código de programa escrito en ABAP sería: DATA: matnr LIKE mara-matnr. TOP_OF_PAGE. Matnr = 'COMPUTER'. WRITE: 'Welcome'. END_OF_SELECTION. WRITE: matnr.</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1090,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,6 +1100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,6 +1172,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1468,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1508,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1565,7 +1564,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1635,7 +1634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1691,7 +1690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="116" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1901,7 +1900,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1971,7 +1970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2139,7 +2138,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>56</v>
       </c>
@@ -2265,7 +2264,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>58</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>63</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>66</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>68</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>78</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>79</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>80</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>88</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>89</v>
       </c>
@@ -2741,7 +2740,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>92</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>93</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>94</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>100</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>104</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>108</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>109</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>113</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>128</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>136</v>
       </c>
@@ -3368,7 +3367,7 @@
         <v>238</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -3376,13 +3375,13 @@
         <v>137</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3390,13 +3389,13 @@
         <v>138</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3404,13 +3403,13 @@
         <v>139</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3418,13 +3417,13 @@
         <v>140</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -3432,27 +3431,27 @@
         <v>141</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>142</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>274</v>
+      <c r="B141" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3460,13 +3459,13 @@
         <v>143</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3474,13 +3473,13 @@
         <v>144</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3488,27 +3487,27 @@
         <v>145</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>146</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3516,13 +3515,13 @@
         <v>147</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3530,13 +3529,13 @@
         <v>148</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3544,13 +3543,13 @@
         <v>149</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3558,13 +3557,13 @@
         <v>150</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3572,13 +3571,13 @@
         <v>151</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -3586,13 +3585,13 @@
         <v>152</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3600,13 +3599,13 @@
         <v>153</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3614,13 +3613,13 @@
         <v>154</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3628,13 +3627,13 @@
         <v>155</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3642,69 +3641,69 @@
         <v>156</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>157</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>158</v>
       </c>
-      <c r="B157" s="7" t="s">
-        <v>308</v>
+      <c r="B157" s="14" t="s">
+        <v>318</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>159</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>309</v>
+      <c r="B158" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>160</v>
       </c>
-      <c r="B159" s="7" t="s">
-        <v>311</v>
+      <c r="B159" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -3712,13 +3711,13 @@
         <v>161</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3726,13 +3725,13 @@
         <v>162</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -3740,13 +3739,13 @@
         <v>163</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>238</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -3754,13 +3753,13 @@
         <v>164</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://perceptio-my.sharepoint.com/personal/andres_giraldo_perceptio_net/Documents/Clientes/Doc's_BANCO/Python/App respuestas examen banco/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7DBC310-C092-45A6-A2A7-D6E786FE687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D40C855-6171-4EBC-85E3-12A8E49AE901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,9 +964,6 @@
     <t>El comando valido para llamar un reporte ABAP de otro programa de reporte es:</t>
   </si>
   <si>
-    <t>Bubmit&lt;report name&gt;</t>
-  </si>
-  <si>
     <t>¿Si se desea iniciar el depurador al hacer clic en un botón, qué comando se debe colocar en el command field?</t>
   </si>
   <si>
@@ -1046,13 +1043,16 @@
     <t xml:space="preserve">las vistas de proyección de ABAP pueden ser creadas usando esta transacción </t>
   </si>
   <si>
-    <t>La salida del siguiente código de programa escrito en ABAP sería: do 3 times.  Write:/5 sy-index, 20 sy-tabix. ENDDO.</t>
-  </si>
-  <si>
-    <t>La salida del siguiente código de programa escrito en ABAP sería: Data: a(3), b(3). A = '123'. B = '456'. Perform abc using a b. Write a. Write b. Form abc using x value(y). X = 'abc'. Y = 'xyz'. Endform.</t>
-  </si>
-  <si>
-    <t>La salida del siguiente código de programa escrito en ABAP sería: DATA: matnr LIKE mara-matnr. TOP_OF_PAGE. Matnr = 'COMPUTER'. WRITE: 'Welcome'. END_OF_SELECTION. WRITE: matnr.</t>
+    <t>Submit&lt;report name&gt;</t>
+  </si>
+  <si>
+    <t>La salida del siguiente código de programa escrito en ABAP sería: do 3 times. Write: /5 sy-index, 20 sy-tabix. ENDDO.</t>
+  </si>
+  <si>
+    <t>La salida del siguiente código de programa escrito en ABAP sería Data: a(3) , b(3). A = '123'. B = '456'. Perform abc using a b. Write a. Write b. Form abc using x value(y). X = 'abc'. Y = 'xyz'. Endform.</t>
+  </si>
+  <si>
+    <t>La salida del siguiente código de programa escrito en ABAP sería: DATA: matnr LIKE mara-matnr. TOP-OF-PAGE. Matnr = 'COMPUTER'. WRITE: 'Welcome'. END-OF-SELECTION. WRITE: matnr.</t>
   </si>
 </sst>
 </file>
@@ -1467,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3367,7 +3367,7 @@
         <v>238</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -3375,7 +3375,7 @@
         <v>137</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>238</v>
@@ -3389,7 +3389,7 @@
         <v>138</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>238</v>
@@ -3409,7 +3409,7 @@
         <v>238</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3431,7 +3431,7 @@
         <v>141</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>238</v>
@@ -3451,7 +3451,7 @@
         <v>238</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3515,7 +3515,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>238</v>
@@ -3571,7 +3571,7 @@
         <v>151</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>238</v>
@@ -3619,7 +3619,7 @@
         <v>238</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3627,13 +3627,13 @@
         <v>155</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3641,13 +3641,13 @@
         <v>156</v>
       </c>
       <c r="B155" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D155" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3655,13 +3655,13 @@
         <v>157</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3675,7 +3675,7 @@
         <v>238</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -3689,7 +3689,7 @@
         <v>238</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -3703,7 +3703,7 @@
         <v>238</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -3711,13 +3711,13 @@
         <v>161</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3725,13 +3725,13 @@
         <v>162</v>
       </c>
       <c r="B161" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -3739,13 +3739,13 @@
         <v>163</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -3753,13 +3753,13 @@
         <v>164</v>
       </c>
       <c r="B163" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D163" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://perceptio-my.sharepoint.com/personal/andres_giraldo_perceptio_net/Documents/Clientes/Doc's_BANCO/Python/App respuestas examen banco/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D40C855-6171-4EBC-85E3-12A8E49AE901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{2BA753EF-5DE1-49F6-B745-02CB8213129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31EE4EE-9894-4C51-826D-AE3F6E27C652}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="321">
-  <si>
-    <t>Una empresa utilizará varias instancias EC2 para alojar varias aplicaciones de referencia. Se espera que las aplicaciones reciban un tráfico constante y relativamente bajo. Se espera que estas aplicaciones funcionen durante 3 años, momento en el que se evaluarán las aplicaciones para su actualización.
-¿Qué tipo de EC2 cumplirá con este requisito considerando el costo como un factor adicional?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="332">
   <si>
     <t>Reserved</t>
   </si>
@@ -48,9 +45,6 @@
     <t>Comunicación</t>
   </si>
   <si>
-    <t>¿Cuál de las siguientes directivas del encabezado de control de cache de la respuesta HTTP indica el que el recurso no se puede almacenar en caché?</t>
-  </si>
-  <si>
     <t>no-cache/no-store</t>
   </si>
   <si>
@@ -72,31 +66,13 @@
     <t>Respuesta</t>
   </si>
   <si>
-    <t>Después de una reunión del Comité Directivo de TI, se le asignó la responsabilidad de configurar un entrono hibrido para los recursos informaticos de la empresa.
-Usted analiza los pros y los contras de varias tecnologías en función de los requisitos que se le dan. Los principales requisitos para impulsar esta selección son consideraciones de costos</t>
-  </si>
-  <si>
     <t>AWS Direct connect</t>
   </si>
   <si>
-    <t>Una empresa internacional tiene muchos clientes en todo el mundo. Estos clientes necesitan transferir gigabytes a terabytes de datos de forma rápida y periódica en un bucket de S3.
-¿Qué función de S3 permitirá estas transferencias de datos a larga distancia de una manera segura y rapida?</t>
-  </si>
-  <si>
     <t>Transfer Acceleration</t>
   </si>
   <si>
-    <t>Usted ha asumido la gestión de varias instancias en la empresa AWS. Usted desea revisar rápidamente los scripts utilizados para iniciar las instancias en tiempo de ejecución.
-Se puede utilizar un comando de URL para hacer esto.
-¿Qué puede agregar la URL http://169.254.169.254/latest/ para traer estos datos?</t>
-  </si>
-  <si>
     <t>meta-data/</t>
-  </si>
-  <si>
-    <t>Una compañía de seguros está creando una aplicación que realizará análisis casi en tiempo real en enormes conjuntos de datos en el rango de terabytes y potencialmente incluso petabytes.
-La empresa está evaluando una opción de almacenamiento de datos de AWS.
-¿Qué servicio de AWS permitirá el almacenamiento de datos a escala de patabytes y también permitirá la consulta rápida de estos datos?</t>
   </si>
   <si>
     <t>Redshift</t>
@@ -128,25 +104,7 @@
     <t>CloudWatch</t>
   </si>
   <si>
-    <t>Su empresa ha pasado por una auditoría en el almacenamiento de datos. Actualmente está almacenando datos históricos en Amazon Glacier.
-Uno de los resultados de la auditoría es que debe poder acceder de forma inmediata y por solicitud a una parte de esos datos históricos a los que se accede con poca frecuencia.
-¿Dónde puede almacenar estos datos para cumplir con este requisito?</t>
-  </si>
-  <si>
-    <t>Estándar S3</t>
-  </si>
-  <si>
-    <t>Su organización utiliza AWS CodeDeploy para implementaciones. Ahora está iniciando un proyecto en la plataforma AWS Lambda. Para sus implementaciones, se le ha dado el requisitos de realizar implementaciones blue-green.
-Cuando realiza implementaciones, desea dividir el tráfico, enviando un pequeño porcentaje del tráfico a la nueva versión de su aplicación.
-¿Qué configuración de implementación permitirá esta división del tráfico?</t>
-  </si>
-  <si>
     <t>Enrutamiento ponderado (Weighted routing)</t>
-  </si>
-  <si>
-    <t>Su empresa planea migrar lentamente de un entorno de nube híbrida a un entorno de nube totalmente de AWS, y del lado de AWS se debe establecer un plan de recuperación ante desastres. La empresa desea establecer objetivos de tiempo de recuperación y puntos de recuperación (Recovery Time and Recovery Point), con un enfoque principal en el costo.
-Usted ha determinado y recomendará que la mejor configuración de DR para cumplir con el costo y los objetivos de RT / RP será tener una versión minima de la aplicación siempre ejecutándose en otra región.
-¿Qué plan de recuperación ante desatres de AWS cumplirá mejor con estos requisitos?</t>
   </si>
   <si>
     <t>Pilot light</t>
@@ -160,26 +118,9 @@
     <t>AWS Budgets</t>
   </si>
   <si>
-    <t>Usted trabaja como arquitecto líder de AWS para un gran proveedor de atención médica. Hay una necesidad de recopilar datos en tiempo real de los dispositivos de toda la organización.
-Los datos incluirán registros de logs y eventos de fuentes como servidores, computadoras de escritorio y dispositivos móviles. Los datos capturados inicialmente serán datos técnicos, pero el objetivo es expandir el esfuerzo para recopilar datos clinico en tiempo real de dispositivos portátiles utilizados por enfermeras y médicos.
-¿Qué servicio de AWS cumple mejor con este requisito?</t>
-  </si>
-  <si>
     <t>Kinesis Data Streams</t>
   </si>
   <si>
-    <t>Tiene varias instancias EC2 en un auto scaling Group pasando por un network load balancer. Las instancias necesitarán acceso a S3 y DynamoDB.
-El auto scaling Group se creó a psrtir de una plantilla de inicio (launch template.)
-¿Qué se debe configurar en la plantilla de inicio para permitir que las instancias recién creadas accedan a S y DynamoDB?</t>
-  </si>
-  <si>
-    <t>Un rol de IAM asociado a instancias recién creadas con permiso para S3 y DinamoDB.</t>
-  </si>
-  <si>
-    <t>Usted sospecha que uno de los servicios AWS que utiliza su empresa no funciona.
-¿Cómo se puede comprovar el estado de este servicio?</t>
-  </si>
-  <si>
     <t>AWS Personal Health Dashboard</t>
   </si>
   <si>
@@ -210,9 +151,6 @@
     <t>POST</t>
   </si>
   <si>
-    <t>¿Cuál de los siguientes códigos de estado HTTP significa SIN CONTENIDO, cuando el cuerpo de la respuesta esta vacío, por ejemplo, una solicitud DELETE?</t>
-  </si>
-  <si>
     <t>¿Cuál de los siguientes no es un método HTTP?</t>
   </si>
   <si>
@@ -222,14 +160,6 @@
     <t>Seguridad en el desarrollo de SW</t>
   </si>
   <si>
-    <t>El hecho de incorporar componentes, códigos o funcionalidades existentes para disminuir la superficie de ataques en un sistema es un principio de diseño seguro.</t>
-  </si>
-  <si>
-    <t>La definición:
-"Debildad de un sistema de información, componente tecnológico, procesos o personas que pueden ser explotadas por una o más amenzas"
-¿A cuál de los siguientes tperminos corresponde?</t>
-  </si>
-  <si>
     <t>Vulnerabilidad</t>
   </si>
   <si>
@@ -239,44 +169,21 @@
     <t>Separación de privilegios</t>
   </si>
   <si>
-    <t>Cuando se intenta asegurar cada una de las capas que componen el sistema o servicio.
-¿Cuál de los siguientes sería el principio a aplicar?</t>
-  </si>
-  <si>
     <t>Defensa en profundidad</t>
   </si>
   <si>
-    <t>"Eventualmente un sistema fallará, pero deberá hacerlo de forma segura. La pérdida de funcionalidad no debe implicar pérdida de la seguridad."
-¿A cuál de los siguientes principios de diseño seguro corresponde de la anterior afirmación?</t>
-  </si>
-  <si>
     <t>Defensa profunda</t>
   </si>
   <si>
-    <t>Jose decide implementar el principio de diseño oscuro en la construcción de una aplicación financiera. Desafortunadamente sus diseños se han hecho públicos en la organización donde trabaja.
-¿Consideras que al seguir este principio la aplicación podría tener algún riesgo de seguridad?</t>
-  </si>
-  <si>
     <t>SI, a pesar de tener un principio de diseño oscuro, podría tener vulnerabilidad no identificada.</t>
   </si>
   <si>
-    <t>Cuando se trata de datos. ¿Cuál de los siguientes mecanismos podriamos considerar defensivos? (Seleccione dos)</t>
-  </si>
-  <si>
     <t>Cifrado y Túneles IPSec</t>
   </si>
   <si>
-    <t>Una pequeña startup está comenzando a configurar IAM para su organización. Se han creado los inicios de sesión de los usuarios y ahora el enfoque serán los permisos para esos usuarios.
-Un administrador comienza a crear politicas basadas en identidad.
-¿A qué elemento no se puede adjuntar una politca basada en identidad?</t>
-  </si>
-  <si>
     <t>Recursos</t>
   </si>
   <si>
-    <t>Principio de desarrollo seguro para limitar los privilegios a una persona o proceso para completar una tarea por un tiempo determinado.</t>
-  </si>
-  <si>
     <t>Menor privilegio</t>
   </si>
   <si>
@@ -286,23 +193,12 @@
     <t>Diseño Abierto</t>
   </si>
   <si>
-    <t>Los mecanismos de seguridad no deben añadir dificultad al acceso de un recurso, o de ser necesario se debe ocultar la complejidad introducida por los mecanismos de seguridad.
-Dada esta afirmación. ¿A cuál de los siguientes principios de diseño seguro corresponde?</t>
-  </si>
-  <si>
     <t>Eslabón más débil</t>
   </si>
   <si>
-    <t>"Representan los datos y objetos de valor del negocio sin llegar a ser un módulo compuesto sólo de estructuras de datos u objetos anémicos (sin comportamiento); sino que por el contrario es donde se recomienda expresar la lógica de negocio critica a través de funciones puras (sin efectos secundarios)."
-¿Cuál de los siguientes se relaciona con la definición anterior?</t>
-  </si>
-  <si>
     <t>Entidades</t>
   </si>
   <si>
-    <t>En el contexto de Arquitectura de Software. ¿Qué es la complejidad esencial?</t>
-  </si>
-  <si>
     <t>Es aquella que es inherente al problema que queremos solucionar, refleja la intención y el propósito por el cual fue creado el sistema y está expresada en los términos del dominio del problema.</t>
   </si>
   <si>
@@ -312,15 +208,9 @@
     <t>Todos los anteriores</t>
   </si>
   <si>
-    <t>¿Cuál es el objetivo de una arquitectura centrada en dominio?</t>
-  </si>
-  <si>
     <t>Proteger y preservar en el largo plazo las reglas y procesos definidos por el negocio de los cambios en los detalles tecnológicos.</t>
   </si>
   <si>
-    <t>¿Cuál de las siguientes se podrían considerar un beneficio de una arquitectura centrada en el dominio, cómo la arquitectura limpia hexagonal?</t>
-  </si>
-  <si>
     <t>Cuando hablamos de microservicios como estilo arquitectónico, podemos decir:</t>
   </si>
   <si>
@@ -345,10 +235,6 @@
     <t>Expertos de dominio (negocio) y Arquitecto de la solución</t>
   </si>
   <si>
-    <t>De acuerdo con DDD, completa la siguiente afirmación con la opción más precisa.
-"El lenguaje ubicuo se caracteriza por ser usado por los miembros _________, sin importar su rol"</t>
-  </si>
-  <si>
     <t>Del equipo de proyecto en general</t>
   </si>
   <si>
@@ -358,9 +244,6 @@
     <t>Entity</t>
   </si>
   <si>
-    <t>En relación con DDD podemos decir que los Domain Evenets:</t>
-  </si>
-  <si>
     <t>Son una forma de modelar el comportamiento de un sistema tomando como énfasis los resultados y comportamientos de negocio que son claramente observables. Su implementación conreta puede variar.</t>
   </si>
   <si>
@@ -370,9 +253,6 @@
     <t>Context Map</t>
   </si>
   <si>
-    <t>Los Value Objects son un componente fundamental para DDD, ¿cuál de los siguientes es comunmente modelado como un Value Object?</t>
-  </si>
-  <si>
     <t>Todas las anteriores</t>
   </si>
   <si>
@@ -385,15 +265,9 @@
     <t>¿Quién debería participar de las sesiones de modelado estratégico?</t>
   </si>
   <si>
-    <t>¿Cómo calificaría la siguiente afirmación?. DDD requiere el uso de una arquitectura de software de referencia y solo permite el uso de protocolos de comunicación asincronos.</t>
-  </si>
-  <si>
     <t>Programación reactiva</t>
   </si>
   <si>
-    <t>Con respecto a el modelo de concurrencia tradicional Threads, Locks y memoria compartida se puede decir:</t>
-  </si>
-  <si>
     <t>La 2 y 3 son verdaderas</t>
   </si>
   <si>
@@ -463,15 +337,9 @@
     <t>Principios SOLID</t>
   </si>
   <si>
-    <t>Cuando hablamos de arquitectura centradas en el dominio, (limpias, hexagonales9 podemos decir que el principio SOLID fundamental para separar lo esencial de lo accidental es:</t>
-  </si>
-  <si>
     <t>Principio de inversión de dependencias</t>
   </si>
   <si>
-    <t>¿Cuál definición corresponde al Principio de sustitución de Liskov (Liskov subtitution principle)</t>
-  </si>
-  <si>
     <t>Noción de que los objetos de un programa deberián ser reemplazables por instancias de sus subtipos sin alterar el correcto funcionamiento del programa</t>
   </si>
   <si>
@@ -481,9 +349,6 @@
     <t>Corresponde al principio SRP de SOLID</t>
   </si>
   <si>
-    <t>¿Cuál definición corresponde al Principio de inversión de la dependencia (Dependency inversion principle)</t>
-  </si>
-  <si>
     <t>Noción de que se debe "depender de abstracciones, no depender de implementaciones"</t>
   </si>
   <si>
@@ -499,15 +364,9 @@
     <t>Son principios de buen diseño y mantenibilidad de software, principalmente provenientes del mundo de la orientación a objetos, pero aplicables de forma general.</t>
   </si>
   <si>
-    <t>Según este principio "Las interfaces deben ser especificas para un tipo de cliente".</t>
-  </si>
-  <si>
     <t>Ninguna de las anteriores.</t>
   </si>
   <si>
-    <t>¿Cuál definición corresponde al Principio de segregación de la interfaz (Interface segregation principle)?</t>
-  </si>
-  <si>
     <t>Noción de que muchas interfaces cliente especificas son mejores que una interfaz de propósito general.</t>
   </si>
   <si>
@@ -517,9 +376,6 @@
     <t>Inversion of control</t>
   </si>
   <si>
-    <t>¿Cuál definición corresponde al Principio de abierto/cerrado (Open/closed principle?</t>
-  </si>
-  <si>
     <t>Noción de que las unidades de software deben estar abiertas para su extensión, pero cerradas para su modificación.</t>
   </si>
   <si>
@@ -532,18 +388,12 @@
     <t>DevOps CI</t>
   </si>
   <si>
-    <t>La integración continua es una práctica en la cual los desarrolladores combinan los cambios en el código en un repositorio central de forma periódica, tras lo cual se ejecutan pruebas automáticas, con el objetivo de encontrar y arreglar errores  con mayor rapidez, mejorar la calidad del software y reducir el tiempo que se tarda en validar y publicar nuevas actualizaciones de software. Esta afirmación es:</t>
-  </si>
-  <si>
     <t>Verdadera</t>
   </si>
   <si>
     <t>Para los procesos de integración continua debe existir un pipeline en capacidad de compilar, ejecutar las pruebas y analizar el código de forma automática para las 3 ramas. Esta afirmación es:</t>
   </si>
   <si>
-    <t>Un equipo tiene la responsabilidad de desarrollar una nueva aplicación para pagos virtuales. Te han consultado cuántos pipelines se deben crear si han validado que una estrategis de mono-repositorio es aplicable al proyecto y tendrán 8 microservicios inicialmente. ¿Cuál sería tu respuesta?</t>
-  </si>
-  <si>
     <t>Se deben crear 2 definiciones de pipeline, las cuales serán nombradas CI Y CD.</t>
   </si>
   <si>
@@ -553,15 +403,9 @@
     <t>Construcción de escenarios</t>
   </si>
   <si>
-    <t>Como desarrollador de un equipo usted fue asignado para construir un pipeline de release. Al momento de realizar su primer despliegue, el release es abandonado. ¿Cuál podría ser la causa de que el release sea abandonado?</t>
-  </si>
-  <si>
     <t>El release definition tiene tareas deshabilitadas y la política indica que no pueden haber tareas deshabilitadas en el pipeline.</t>
   </si>
   <si>
-    <t>¿Cuál de la las siguientes afirmación es la acertada con respecto al continuos Deployment y las buenas practicas?</t>
-  </si>
-  <si>
     <t>Tanto las recetas de despliegue y los ambientes deben estar homologados para contar con despliegues predecibles, mantenibles y repetibles</t>
   </si>
   <si>
@@ -569,9 +413,6 @@
   </si>
   <si>
     <t>Proteger y aislar las reglas del negocio de un entorno cambiante como lo es la tecnología que la rodea</t>
-  </si>
-  <si>
-    <t>Usted ha sido asignado para le diseño y construcción de un pipeline de release para realizar despliegues a producción. ¿Cuáles de los siguientes stage deben configurarse?</t>
   </si>
   <si>
     <t>Create OC.
@@ -605,9 +446,6 @@
     <t>FIRST y AAA</t>
   </si>
   <si>
-    <t>¿Cuáles podrían ser las ramas principales que deben ser configuradas por Default un repositorios de GIT?</t>
-  </si>
-  <si>
     <t>master, release, develop</t>
   </si>
   <si>
@@ -631,20 +469,11 @@
     <t>Permiten almacenar las dependencias de cada proyecto o producto. En estos repositorios también se definen los repositorios build (repositorios donde se almacenan los componentes o artefactos compilados, estos se publican desde el pipeline de CD para ser desplegados a través del pipeline de RM), de los cuales el banco posee el código fuente.</t>
   </si>
   <si>
-    <t>¿Cuáles de las siguiente herramientas permite realizar análisis estático de código en el pipeline de integración continua? Seleccione dos opciones</t>
-  </si>
-  <si>
-    <t>¿Cuál es el objetivo clave de la integración continua?</t>
-  </si>
-  <si>
     <t>Encontrar y arreglar errores con mayor rapidez, mejorar la calidad del software y reducir el tiempo que se tarda en validar y publicar nuevas actualizaciones de software.</t>
   </si>
   <si>
     <t>SonarQube.
 Kiuwan.</t>
-  </si>
-  <si>
-    <t>¿Cuál es el primer análisis de código que debe se ejecutado?</t>
   </si>
   <si>
     <t>Pruebas unitarias</t>
@@ -658,9 +487,6 @@
 Timely</t>
   </si>
   <si>
-    <t>¿Cuáles de los siguientes son pasos del principio AAA?(Varias Respuestas)</t>
-  </si>
-  <si>
     <t>Arrange
 Act
 Assert</t>
@@ -678,9 +504,6 @@
     <t>Se enfocan en verificar si el sistema es "apto para el uso". Se diseñan a partir de las definiciones de requerimientos, casos de uso y de los procesos de negocio definidos.</t>
   </si>
   <si>
-    <t>¿Cuáles de los siguientes son pasos del ciclo T.D.D.? (Varias Respuestas)</t>
-  </si>
-  <si>
     <t>¿Cuáles son los beneficios de usar T.D.D? (Seleccione DOS)</t>
   </si>
   <si>
@@ -799,18 +622,12 @@
     <t>docker run -it centos /bin/bash</t>
   </si>
   <si>
-    <t>Para obtener el número de página actual, se puede usar una de las siguientes variables del sistema</t>
-  </si>
-  <si>
     <t>ABAP</t>
   </si>
   <si>
     <t>sy-pagno</t>
   </si>
   <si>
-    <t>¿Cuál es la diferencia entre "Like" y "type"</t>
-  </si>
-  <si>
     <t>"Type" se refiere al tipo de datos existente, mientras que "Like" se refiere al objeto de datos existente</t>
   </si>
   <si>
@@ -871,9 +688,6 @@
     <t>Ha sido diseñaado para usuarios con poco o ningun conocimiento de la programación ABAP</t>
   </si>
   <si>
-    <t>¿Para qué se utiliza ABAP/4 Query en Sap</t>
-  </si>
-  <si>
     <t>ABAP Query se utiliza para crear informes que aún no estan presentes en el sistema SAP</t>
   </si>
   <si>
@@ -920,9 +734,6 @@
   </si>
   <si>
     <t>¿Qué es el diccionario de datos ABAP?</t>
-  </si>
-  <si>
-    <t>Es una herramienta del banco de trabajo ABAP y es un repositorio central para las definiciones de datos en el sistema SAP:</t>
   </si>
   <si>
     <t>Nivel Domain</t>
@@ -1049,17 +860,212 @@
     <t>La salida del siguiente código de programa escrito en ABAP sería: do 3 times. Write: /5 sy-index, 20 sy-tabix. ENDDO.</t>
   </si>
   <si>
-    <t>La salida del siguiente código de programa escrito en ABAP sería Data: a(3) , b(3). A = '123'. B = '456'. Perform abc using a b. Write a. Write b. Form abc using x value(y). X = 'abc'. Y = 'xyz'. Endform.</t>
-  </si>
-  <si>
     <t>La salida del siguiente código de programa escrito en ABAP sería: DATA: matnr LIKE mara-matnr. TOP-OF-PAGE. Matnr = 'COMPUTER'. WRITE: 'Welcome'. END-OF-SELECTION. WRITE: matnr.</t>
+  </si>
+  <si>
+    <t>La salida del siguiente código de programa escrito en ABAP sería Data : a(3) , b(3). A = '123'. B = '456'. Perform abc using a b. Write a. Write b. Form abc using x value(y). X = 'abc'. Y = 'xyz'. Endform.</t>
+  </si>
+  <si>
+    <t>Para obtener el número de página actual, se puede usar una de las siguientes variables del sistema:</t>
+  </si>
+  <si>
+    <t>¿Cuál es la diferencia entre "Like" y "type"?</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza ABAP/4 Query en Sap?</t>
+  </si>
+  <si>
+    <t>Es una herramienta del banco de trabajo ABAP y es un repositorio central para las definiciones de datos en el sistema SAP.</t>
+  </si>
+  <si>
+    <t>La integración continua es una práctica en la cual los desarrolladores combinan los cambios en el código en un repositorio central de forma periódica, tras lo cual se ejecutan pruebas automáticas, con el objetivo de encontrar y arreglar errores con mayor rapidez, mejorar la calidad del software y reducir el tiempo que se tarda en validar y publicar nuevas actualizaciones de software. Esta afirmación es:</t>
+  </si>
+  <si>
+    <t>Un equipo tiene la responsabilidad de desarrollar una nueva aplicación para pagos virtuales. Te han consultado cuántos pipelines se deben crear si han validado que una estrategia de mono- repositorio es aplicable al proyecto y tendrán 8 microservicios inicialmente. ¿Cuál sería tu respuesta?</t>
+  </si>
+  <si>
+    <t>Como desarrollador de un equipo usted fue asignado para construir un pipeline de release. Al momento de realizar su primer despliegue, el release es abandonado. ¿Cuál podría ser la causa para que el release sea abandonado?</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes afirmación es la acertada con respecto al continuos Deployment y las buenas practicas?</t>
+  </si>
+  <si>
+    <t>Usted ha sido asignado para el diseño y construcción de un pipeline de release para realizar despliegues a producción. ¿Cuáles de los siguientes stage deben configurarse?</t>
+  </si>
+  <si>
+    <t>¿Cuáles podrían ser las ramas principales que deben ser configuradas por Default un repositorio de GIT?</t>
+  </si>
+  <si>
+    <t>¿Cuáles de las siguiente herramientas permite realizar análisis estático de código en el pipeline de integración continua? Seleccione dos opciones.</t>
+  </si>
+  <si>
+    <t>¿Cuál es el objetivo clave de la integración continua ?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el primer análisis de código que debe ser ejecutado?</t>
+  </si>
+  <si>
+    <t>¿Cuáles de los siguientes son pasos del principio AAA? (Varias Respuestas)</t>
+  </si>
+  <si>
+    <t>¿Cuáles de los siguientes son pasos del Ciclo T.D.D? (Varias Respuestas)</t>
+  </si>
+  <si>
+    <t>Cuando hablamos de arquitecturas centradas en el dominio, (limpias, hexagonales) podemos decir que el principio SOLID fundamental para separar lo esencial de lo accidental es:</t>
+  </si>
+  <si>
+    <t>¿Cuál definición corresponde al Principio de sustitución de Liskov (Liskov substitution principle)?</t>
+  </si>
+  <si>
+    <t>¿Cuál definición corresponde alPrincipio de inversión de la dependencia (Dependency inversion principle)?</t>
+  </si>
+  <si>
+    <t>Según este principio "Las interfaces deben ser específicas para un tipo de cliente".</t>
+  </si>
+  <si>
+    <t>¿Cuál definición corresponde al Principio de segregación de la interfaz (Interface segregation principle))?</t>
+  </si>
+  <si>
+    <t>¿Cuál definición corresponde al Principio de abierto/cerrado (Open/closed principle)?</t>
+  </si>
+  <si>
+    <t>Con respecto a el modelo de concurrencia tradicional Threads, Locks y memoria compartidas se puede decir:</t>
+  </si>
+  <si>
+    <t>De acuerdo con DDD, completa la siguiente afirmación con la opción más precisa. "El lenguaje ubicuo se caracteriza por ser usado por los miembros _________, sin importar su rol."</t>
+  </si>
+  <si>
+    <t>En relación con DDD podemos decir que los Domain Events:</t>
+  </si>
+  <si>
+    <t>Los Value Objects son un componente fundamental para DDD, ¿cuál de los siguientes es comunmente modelado como un Value Object?:</t>
+  </si>
+  <si>
+    <t>¿Cómo calificaría la siguiente afirmación?: DDD requiere el uso de una arquitectura de software de referencia y solo permite el uso de protocolos de comunicación asincronos.</t>
+  </si>
+  <si>
+    <t>Representan los datos y objetos de valor del negocio sin llegar a ser un módulo compuesto sólo de estructuras de datos u objetos anémicos (sin comportamiento); sino que por el contrario es donde se recomienda expresar la lógica de negocio crítica a través de funciones puras (sin efectos secundarios). ¿Cuál de los siguientes se relaciona con la definición anterior?</t>
+  </si>
+  <si>
+    <t>En el contexto de Arquitectura de Software, ¿Qué es la complejidad esencial?</t>
+  </si>
+  <si>
+    <t>¿Cuál es el objetivo de una arquitectura centrada en el dominio?</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes se podrían considerar un beneficio de una arquitectura centrada en el dominio, cómo la arquitectura limpia o hexagonal?</t>
+  </si>
+  <si>
+    <t>El hecho de incorporar componentes, códigos o funcionalidades existentes para dismunir la superficie de ataques en un sistema es un principio de diseño seguro.</t>
+  </si>
+  <si>
+    <t>La definición: "Debilidad de un sistema de información, componente tecnológico, procesos o personas que pueden ser explotadas por una o más amenazas ¿A cual de los siguientes términos corresponde?</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes sería el principio a aplicar?</t>
+  </si>
+  <si>
+    <t>Cuando se intenta asegurar cada una de las capas que componen el sistema o servicio, ¿Cuál de los siguientes sería el principio a aplicar?</t>
+  </si>
+  <si>
+    <t>¿A cuál de los siguientes principios de diseño seguro corresponde de la anterior afirmación?</t>
+  </si>
+  <si>
+    <t>"Eventualmente un sistema fallará, pero deberá hacerlo de forma segura. La pérdida de funcionalidad no debe implicar pérdida de la seguridad." ¿A cuál de los siguientes principios de diseño seguro corresponde de la anterior afirmación?</t>
+  </si>
+  <si>
+    <t>Jose decide implementar el principio de diseño oscuro en la construcción de una aplicación financiera. Desafortunadamente sus diseños se han hecho públicos en la organización donde trabaja. ¿Consideras que al seguir este principio la aplicación podría tener algún riesgo de seguridad?</t>
+  </si>
+  <si>
+    <t>Cuando se trata de datos, cual de los siguientes mecanismos podríamos considerar defensivos? (Seleccione dos)</t>
+  </si>
+  <si>
+    <t>Una pequeña startup está comenzando a configurar IAM para su organización. Se han creado los inicios de sesión de los usuarios y ahora el enfoque serán los permisos para para esos usuarios. Un administrador comienza a crear políticas basadas en identidad. ¿A qué elemento no se puede adjuntar una polítca basada en identidad?</t>
+  </si>
+  <si>
+    <t>Principio de desarrollo seguro para limitar los privilegios a una persona o proceso para para completar una tarea por un tiempo determinado:</t>
+  </si>
+  <si>
+    <t>Dada esta afirmación. ¿A cuál de los siguientes principios de diseño seguro corresponde?</t>
+  </si>
+  <si>
+    <t>Los mecanismos de seguridad no deben añadir dificultad al acceso de un recurso, o de ser necesario se debe ocultar la complejidad introducida por los mecanismos de seguridad. Dada esta afirmación. ¿A cuál de los siguientes principios de diseño seguro corresponde?</t>
+  </si>
+  <si>
+    <t>¿Cuál de las siguientes directivas del encabezado de control de caché de la respuesta HTTP indica que el recurso no se puede almacenar en caché?</t>
+  </si>
+  <si>
+    <t>Restringir el uso de métodos POST y GET, facilitando que desde el método GET se pueda</t>
+  </si>
+  <si>
+    <t>eliminar datos y no usar nombres de usuario, contraseñas o token de sesión en la URL, son prácticas que se deberían seguir para diseñar servicios web RESTful seguros.</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes códigos de estado HTTP significa SIN CONTENIDO, cuando el cuerpo de la respuesta está vacio, por ejemplo, una solicitud DELETE?</t>
+  </si>
+  <si>
+    <t>Una empresa utilizará varias instancias EC2 para alojar varias aplicaciones de referencia. Se espera que las aplicaciones reciban un tráfico constante y relativamente bajo. Se espera que estas aplicaciones funcionen durante 3 años, momento en el que se evaluarán las aplicaciones para su actualización. ¿Qué tipo de EC2 cumplirá con este requisito considerando el costo como un factor adicional?</t>
+  </si>
+  <si>
+    <t>Después de una reunión del Comité Directivo de TI, se le asignó la responsabilidad de configurar un entorno híbrido para los recursos informáticos de la empresa. Usted analiza los pros y los contras de varias tecnologías en función de los requisitos que se le dan. Los principales requisitos para impulsar esta selección son consideraciones de costos generales y la capacidad de reutilizar las conexiones de Internet existentes. ¿Qué tecnología cumple mejor con estos requisitos?</t>
+  </si>
+  <si>
+    <t>Una empresa internacional tiene muchos clientes en todo el mundo. Estos clientes necesitan transferir gigabytes a terabytes de datos de forma rápida y periódica a un bucket de S3. ¿Qué función de S3 permitirá estas transferencias de datos a larga distancia de una manera segura y rápida?</t>
+  </si>
+  <si>
+    <t>Usted ha asumido la gestión de varias instancias en la empresa AWS. Usted desea revisar rápidamente los scripts utilizados para iniciar las instancias en tiempo de ejecución. Se puede utilizar un comando de URL para hacer esto. ¿Qué puede agregar a la URL http://169.254.169.254/latest/ para traer estos datos?</t>
+  </si>
+  <si>
+    <t>Una compañía de seguros está creando una aplicación que realizará análisis casi en tiempo real en enormes conjuntos de datos en el rango de terabytes y potencialmente incluso petabytes. La empresa está evaluando una opción de almacenamiento de datos de AWS. ¿Qué servicio de AWS permitirá el almacenamiento de datos a escala de patabytes y también permitirá la consulta rápida de estos datos?</t>
+  </si>
+  <si>
+    <t>Su empresa ha pasado por una auditoría enfocada en el almacenamiento de datos. Actualmente está almacenando datos históricos en Amazon Glacier. Uno de los resultados de la auditoría es que debe poder acceder de forma inmediata y por solicitud a una parte de esos datos históricos a los que se accede con poca frecuencia. ¿Dónde puede almacenar estos datos para cumplir con este requisito?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S3 ESTANDAR-IA</t>
+  </si>
+  <si>
+    <t>Su organización utiliza AWS CodeDeploy para implementaciones. Ahora está iniciando un proyecto en la plataforma AWS Lambda. Para sus implementaciones, se le ha dado el requisito de realizar implementaciones blue-green. Cuando realiza implementaciones, desea dividir el tráfico, enviando un pequeño porcentaje del tráfico a la nueva versión de su aplicación. ¿Qué configuración de implementación permitirá esta división del tráfico?</t>
+  </si>
+  <si>
+    <t>Su empresa planea migrar lentamente de un entorno de nube híbrida a un entorno de nube totalmente de AWS, y del lado de AWS debe establecer un plan de recuperación ante desastres. La empresa desea establecer objetivos de tiempo de recuperación y puntos de recuperación (Recovery Time and Recovery Point), con un enfoque principal en el costo. Usted ha determinado y recomendará que la mejor configuración de DR para cumplir con el costo y los objetivos de RT/RP será tener una versión mínima de la aplicación siempre ejecutándose en otra región. ¿Qué plan de recuperación ante desastres de AWS cumplirá mejor con estos requisitos?</t>
+  </si>
+  <si>
+    <t>Usted trabaja como arquitecto líder de AWS para un gran proveedor de atención médica. Hay una necesidad de recopilar datos en tiempo real de los dispositivos de toda la organización. Los datos incluirán registros de logs y eventos de fuentes como servidores, computadoras de escritorio y dispositivos móviles. Los datos capturados inicialmente serán datos técnicos, pero el objetivo es expandir el esfuerzo para recopilar datos clinicos en tiempo real de dispositivos portátiles utilizados por enfermeras y médicos. ¿Qué servicio de AWS cumple mejor con este requisito?</t>
+  </si>
+  <si>
+    <t>Tiene varias instancias EC2 en un auto scaling Group pasando por un network load balancer. Las instancias necesitarán acceso a S3 y DynamoDB. El auto scaling Group se creó a partir de una plantilla de inicio (launch template.). ¿Qué se debe configurar en la plantilla de inicio para permitir que las instancias recién creadas accedan a S3 y DynamoDB?</t>
+  </si>
+  <si>
+    <t>Política IAM asociado a instancias recién creadas con permiso para S3 y DinamoDB.</t>
+  </si>
+  <si>
+    <t>¿Cómo se puede comprovar el estado de este servicio?</t>
+  </si>
+  <si>
+    <t>Usted sospecha que uno de los servicios de AWS que utiliza su empresa no funciona. ¿Cómo se puede comprobar el estado de este servicio?</t>
+  </si>
+  <si>
+    <t>En la primera subred, crean una instancia EC2 para alojar una aplicación web. Hay una ACL de red y un grupo de seguridad, que tienen la entrada y salida adecuadas hacua y desde internet.</t>
+  </si>
+  <si>
+    <t>Hay una ruta en la tabla de enrutamiento hacia el internet gateway.</t>
+  </si>
+  <si>
+    <t>Las instancias EC2 agregadas a la subred deben tener una dirección IP única a nivel mundial para garantizar el acceso a internet.</t>
+  </si>
+  <si>
+    <t>¿Cuál no es una diercción IP única a nivel mundial?</t>
+  </si>
+  <si>
+    <t>Una nueva empresa emergente decide utilizar AWS para alojar su aplicación web. Configuran una VPC y dos subredes dentro de la VPC. También conectan un internet gateway a la VPC. En la primera subred, crean una instancia EC2 para alojar una aplicación web. Hay una ACL de red y un grupo de seguridad, que tienen la entrada y salida adecuadas hacua y desde internet. Hay una ruta en la tabla de enrutamiento hacia el internet gateway. Las instancias EC2 agregadas a la subred deben tener una dirección IP única a nivel mundial para garantizar el acceso a internet. ¿Cuál no es una diercción IP única a nivel mundial?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,8 +1095,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,6 +1118,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1184,6 +1208,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1476,232 +1517,231 @@
     <col min="2" max="2" width="55.36328125" customWidth="1"/>
     <col min="3" max="3" width="21.08984375" customWidth="1"/>
     <col min="4" max="4" width="61.1796875" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
+      <c r="B3" s="21" t="s">
+        <v>314</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
+      <c r="B4" s="18" t="s">
+        <v>315</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
+      <c r="B6" s="18" t="s">
+        <v>317</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="122" customHeight="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+      <c r="B8" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="115" customHeight="1" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="115" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>27</v>
+      <c r="B9" s="21" t="s">
+        <v>320</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="180.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
+      <c r="B10" s="23" t="s">
+        <v>321</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
+      <c r="B12" s="22" t="s">
+        <v>322</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>35</v>
+      <c r="B13" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
+      <c r="B14" s="18" t="s">
+        <v>326</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1709,13 +1749,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>3</v>
+        <v>309</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1723,13 +1763,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1737,13 +1777,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1751,13 +1791,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -1765,10 +1805,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7" t="b">
         <v>0</v>
@@ -1779,13 +1819,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1793,10 +1833,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
         <v>204</v>
@@ -1807,13 +1847,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1821,27 +1861,27 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>52</v>
+        <v>297</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D25" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>53</v>
+      <c r="B26" s="18" t="s">
+        <v>298</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1849,55 +1889,55 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>57</v>
+      <c r="B28" s="18" t="s">
+        <v>300</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>61</v>
+      <c r="B30" s="18" t="s">
+        <v>303</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1905,27 +1945,27 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>65</v>
+      <c r="B32" s="18" t="s">
+        <v>305</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1933,13 +1973,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1947,13 +1987,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -1961,27 +2001,27 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>71</v>
+        <v>308</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>73</v>
+      <c r="B36" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -1989,13 +2029,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2003,13 +2043,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2017,13 +2057,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2031,13 +2071,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2045,13 +2085,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2059,13 +2099,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2073,13 +2113,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2087,13 +2127,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2101,27 +2141,27 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>90</v>
+      <c r="B46" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="116" x14ac:dyDescent="0.35">
@@ -2129,13 +2169,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2143,13 +2183,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2157,13 +2197,13 @@
         <v>50</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2171,27 +2211,27 @@
         <v>51</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>52</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2199,13 +2239,13 @@
         <v>53</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2213,10 +2253,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D53" s="7" t="b">
         <v>0</v>
@@ -2227,13 +2267,13 @@
         <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2241,13 +2281,13 @@
         <v>56</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2255,13 +2295,13 @@
         <v>57</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2269,13 +2309,13 @@
         <v>58</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2283,10 +2323,10 @@
         <v>59</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D58" s="3" t="b">
         <v>1</v>
@@ -2297,13 +2337,13 @@
         <v>60</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2311,13 +2351,13 @@
         <v>61</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2325,13 +2365,13 @@
         <v>62</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2339,13 +2379,13 @@
         <v>63</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2353,10 +2393,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D63" s="7" t="b">
         <v>1</v>
@@ -2367,13 +2407,13 @@
         <v>65</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2381,13 +2421,13 @@
         <v>66</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2395,13 +2435,13 @@
         <v>67</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2409,13 +2449,13 @@
         <v>68</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2423,13 +2463,13 @@
         <v>69</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2437,13 +2477,13 @@
         <v>70</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2451,13 +2491,13 @@
         <v>71</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2465,13 +2505,13 @@
         <v>72</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2479,13 +2519,13 @@
         <v>73</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2493,13 +2533,13 @@
         <v>74</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2507,13 +2547,13 @@
         <v>75</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2521,13 +2561,13 @@
         <v>76</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2535,13 +2575,13 @@
         <v>77</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2549,13 +2589,13 @@
         <v>78</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2563,13 +2603,13 @@
         <v>79</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
@@ -2577,13 +2617,13 @@
         <v>80</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2591,13 +2631,13 @@
         <v>81</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2605,13 +2645,13 @@
         <v>82</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2619,13 +2659,13 @@
         <v>83</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2633,13 +2673,13 @@
         <v>84</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2647,13 +2687,13 @@
         <v>85</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2661,13 +2701,13 @@
         <v>86</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2675,13 +2715,13 @@
         <v>87</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2689,13 +2729,13 @@
         <v>88</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2703,13 +2743,13 @@
         <v>89</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2717,13 +2757,13 @@
         <v>90</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2731,13 +2771,13 @@
         <v>91</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2745,13 +2785,13 @@
         <v>92</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="203" x14ac:dyDescent="0.35">
@@ -2759,13 +2799,13 @@
         <v>93</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="87" x14ac:dyDescent="0.35">
@@ -2773,13 +2813,13 @@
         <v>94</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2787,13 +2827,13 @@
         <v>95</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2801,13 +2841,13 @@
         <v>96</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2815,13 +2855,13 @@
         <v>97</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2829,13 +2869,13 @@
         <v>98</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2843,13 +2883,13 @@
         <v>99</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2857,13 +2897,13 @@
         <v>100</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2871,13 +2911,13 @@
         <v>101</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2885,13 +2925,13 @@
         <v>102</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2899,13 +2939,13 @@
         <v>103</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2913,13 +2953,13 @@
         <v>104</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C103" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2927,13 +2967,13 @@
         <v>105</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2941,10 +2981,10 @@
         <v>106</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D105" s="8" t="b">
         <v>1</v>
@@ -2955,13 +2995,13 @@
         <v>107</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2969,13 +3009,13 @@
         <v>108</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -2983,13 +3023,13 @@
         <v>109</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -2997,13 +3037,13 @@
         <v>110</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3011,13 +3051,13 @@
         <v>111</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3025,13 +3065,13 @@
         <v>112</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -3039,13 +3079,13 @@
         <v>113</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3053,13 +3093,13 @@
         <v>114</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -3067,13 +3107,13 @@
         <v>115</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3081,13 +3121,13 @@
         <v>116</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3095,13 +3135,13 @@
         <v>117</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3109,13 +3149,13 @@
         <v>118</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3123,13 +3163,13 @@
         <v>119</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3137,13 +3177,13 @@
         <v>120</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3151,13 +3191,13 @@
         <v>121</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3165,13 +3205,13 @@
         <v>122</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3179,13 +3219,13 @@
         <v>123</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3193,13 +3233,13 @@
         <v>124</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -3207,13 +3247,13 @@
         <v>125</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -3221,13 +3261,13 @@
         <v>126</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3235,13 +3275,13 @@
         <v>127</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -3249,13 +3289,13 @@
         <v>128</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -3263,13 +3303,13 @@
         <v>129</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3277,13 +3317,13 @@
         <v>130</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -3291,13 +3331,13 @@
         <v>131</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3305,13 +3345,13 @@
         <v>132</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3319,13 +3359,13 @@
         <v>133</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3333,13 +3373,13 @@
         <v>134</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3347,13 +3387,13 @@
         <v>135</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3361,13 +3401,13 @@
         <v>136</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -3375,13 +3415,13 @@
         <v>137</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3389,13 +3429,13 @@
         <v>138</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3403,13 +3443,13 @@
         <v>139</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>266</v>
+        <v>213</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3417,13 +3457,13 @@
         <v>140</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -3431,13 +3471,13 @@
         <v>141</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3445,13 +3485,13 @@
         <v>142</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3459,13 +3499,13 @@
         <v>143</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3473,13 +3513,13 @@
         <v>144</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3487,13 +3527,13 @@
         <v>145</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3501,13 +3541,13 @@
         <v>146</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3515,13 +3555,13 @@
         <v>147</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3529,13 +3569,13 @@
         <v>148</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3543,13 +3583,13 @@
         <v>149</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3557,13 +3597,13 @@
         <v>150</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3571,13 +3611,13 @@
         <v>151</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -3585,13 +3625,13 @@
         <v>152</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3599,13 +3639,13 @@
         <v>153</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3613,13 +3653,13 @@
         <v>154</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3627,13 +3667,13 @@
         <v>155</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3641,13 +3681,13 @@
         <v>156</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3655,13 +3695,13 @@
         <v>157</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3669,13 +3709,13 @@
         <v>158</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -3683,13 +3723,13 @@
         <v>159</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -3697,13 +3737,13 @@
         <v>160</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -3711,13 +3751,13 @@
         <v>161</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3725,13 +3765,13 @@
         <v>162</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -3739,13 +3779,13 @@
         <v>163</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -3753,13 +3793,138 @@
         <v>164</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D163" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7745E85A-AD7C-4EC7-A4A6-DEAEFD01637B}">
+  <dimension ref="A2:A31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="158.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+    </row>
+    <row r="12" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+    </row>
+    <row r="27" spans="1:1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://perceptio-my.sharepoint.com/personal/andres_giraldo_perceptio_net/Documents/Clientes/Doc's_BANCO/Python/App respuestas examen banco/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{2BA753EF-5DE1-49F6-B745-02CB8213129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31EE4EE-9894-4C51-826D-AE3F6E27C652}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE8428F-A2DC-4B29-8CE7-B665DD6C7FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="328">
   <si>
     <t>Reserved</t>
   </si>
@@ -78,27 +78,10 @@
     <t>Redshift</t>
   </si>
   <si>
-    <t>Una nueva empresa emergente decide utilizar AWS para alojar su aplicación web. Configuran una VPC y dos subredes dentro de la VPC. También conectan un internet gateway a la VPC.
-En la primera subred, crean una instancia EC2 para alojar una aplicación web. Hay una ACL de red y un grupo de seguridad, que tienen la entrada y salida adecuadas hacua y desde internet.
-Hay una ruta en la tabla de enrutamiento hacia el internet gateway.
-Las instancias EC2 agregadas a la subred deben tener una dirección IP única a nivel mundial para garantizar el acceso a internet.
-¿Cuál no es una diercción IP única a nivel mundial?</t>
-  </si>
-  <si>
     <t>Nro</t>
   </si>
   <si>
     <t>AWS_Architecture</t>
-  </si>
-  <si>
-    <t>Una liga de béisbol profesional ha optado por utilizar una base de datos de documentos y valores clave para el almacenamiento, procesamiento y la entrega de datos.
-Muchos de los requisitos de datos implican un procesamiento de datos de alta velocidad, como un sistema de radar Doppler que muestra la posición de la pelota de béisbol 2000 veces por segundo.
-¿Qué almacenamiento de datos AWS puede cumplir con estos requisitos?</t>
-  </si>
-  <si>
-    <t>Está administrando el almacenamiento de datos para su empresa y hay muchos volúmenes de EBS. Sus lideres le han dado algunos requisitos nuevos.
-Es necesario monitorear ciertas métricas en los volúmenes de EBS y el equipo de bases de datos debe reiniciar una notificación por correo electrónico cuando se superen ciertos umbrales.
-¿Qué servicios AWS se pudedn configurar para cumplir con estos requisitos?</t>
   </si>
   <si>
     <t>CloudWatch</t>
@@ -646,9 +629,6 @@
     <t>¿Cuándo utilizamos "End-of-selection"?</t>
   </si>
   <si>
-    <t>"End-of-selection" se usa para mejorar la generación, la funcionalidad y la legibilidaad de los informes</t>
-  </si>
-  <si>
     <t>¿Para que sirve ALV en ABAP?</t>
   </si>
   <si>
@@ -1046,19 +1026,25 @@
     <t>Usted sospecha que uno de los servicios de AWS que utiliza su empresa no funciona. ¿Cómo se puede comprobar el estado de este servicio?</t>
   </si>
   <si>
-    <t>En la primera subred, crean una instancia EC2 para alojar una aplicación web. Hay una ACL de red y un grupo de seguridad, que tienen la entrada y salida adecuadas hacua y desde internet.</t>
-  </si>
-  <si>
-    <t>Hay una ruta en la tabla de enrutamiento hacia el internet gateway.</t>
-  </si>
-  <si>
-    <t>Las instancias EC2 agregadas a la subred deben tener una dirección IP única a nivel mundial para garantizar el acceso a internet.</t>
-  </si>
-  <si>
-    <t>¿Cuál no es una diercción IP única a nivel mundial?</t>
-  </si>
-  <si>
-    <t>Una nueva empresa emergente decide utilizar AWS para alojar su aplicación web. Configuran una VPC y dos subredes dentro de la VPC. También conectan un internet gateway a la VPC. En la primera subred, crean una instancia EC2 para alojar una aplicación web. Hay una ACL de red y un grupo de seguridad, que tienen la entrada y salida adecuadas hacua y desde internet. Hay una ruta en la tabla de enrutamiento hacia el internet gateway. Las instancias EC2 agregadas a la subred deben tener una dirección IP única a nivel mundial para garantizar el acceso a internet. ¿Cuál no es una diercción IP única a nivel mundial?</t>
+    <t>"End-of-selection" se usa para mejorar la generación, la funcionalidad y la legibilidad de los informes</t>
+  </si>
+  <si>
+    <t>Una liga de béisbol profesional ha optado por utilizar una base de datos de documentos y valores clave para el almacenamiento, el procesamiento y la entrega de datos.
+Muchos de los requisitos de datos implican un procesamiento de datos de alta velocidad, como un sistema de radar Doppler que muestrea la posición de la pelota de béisbol 2000 veces por segundo.
+¿Qué almacenamiento de datos de AWS puede cumplir con estos requisitos?</t>
+  </si>
+  <si>
+    <t>Una nueva empresa emergente decide utilizar AWS para alojar su aplicación web. Configuran una VPC y dos subredes dentro de la VPC. También conectan un internet gateway a la VPC. En la primera subred, crean una instancia EC2 para alojar una aplicación web. Hay una ACL de red y un grupo de seguridad, que tienen la entrada salida adecuadas hacia y desde Internet. Hay una ruta en la tabla de enrutamiento hacia el internet gateway.
+Las instancias EC2 agregadas a la subred deben tener una dirección IP única a nivel mundial para garantizar el acceso a internet.
+¿Cuál no es una dirección IP única a nivel mundial?</t>
+  </si>
+  <si>
+    <t>Está administrando el almacenamiento de datos para su empresa y hay muchos volúmenes de EBS. Sus líderes le han dado algunos requisitos nuevos.
+Es necesario monitorear ciertas métricas en los volúmenes de EBS, y el equipo de bases de datos debe recibir una notificación por correo electrónico cuando se superen ciertos umbrales. ¿Qué servicios de AWS se pueden configurar para cumplir con estos requisitos?</t>
+  </si>
+  <si>
+    <t>Seleccione las afirmaciones correctas entre Entrega Continua(Continuous Delivery) e
+Implementación Continua(Continuous Deployment). Seleccione 3 opciones.</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1222,9 +1208,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1508,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1521,7 +1504,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1538,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -1552,10 +1535,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>9</v>
@@ -1566,10 +1549,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
@@ -1580,10 +1563,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -1594,10 +1577,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>12</v>
@@ -1608,28 +1591,28 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
+      <c r="B7" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="122" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>318</v>
+      <c r="B8" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="115" customHeight="1" x14ac:dyDescent="0.35">
@@ -1637,27 +1620,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="180.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>321</v>
+      <c r="B10" s="22" t="s">
+        <v>317</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="116" x14ac:dyDescent="0.35">
@@ -1665,13 +1648,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="145" x14ac:dyDescent="0.35">
@@ -1679,13 +1662,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="87" x14ac:dyDescent="0.35">
@@ -1693,13 +1676,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -1707,13 +1690,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -1721,10 +1704,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>12</v>
@@ -1735,13 +1718,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1749,7 +1732,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>1</v>
@@ -1763,13 +1746,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1777,13 +1760,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1791,13 +1774,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -1805,7 +1788,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>1</v>
@@ -1819,13 +1802,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1833,7 +1816,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>1</v>
@@ -1847,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1861,10 +1844,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7" t="b">
         <v>1</v>
@@ -1875,13 +1858,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1889,13 +1872,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1903,13 +1886,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -1917,13 +1900,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -1931,13 +1914,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1945,13 +1928,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="87" x14ac:dyDescent="0.35">
@@ -1959,13 +1942,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1973,13 +1956,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1987,13 +1970,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2001,13 +1984,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="87" x14ac:dyDescent="0.35">
@@ -2015,13 +1998,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2043,13 +2026,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2057,13 +2040,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2071,13 +2054,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2085,13 +2068,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2099,13 +2082,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2113,13 +2096,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2127,13 +2110,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2141,13 +2124,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2155,13 +2138,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="116" x14ac:dyDescent="0.35">
@@ -2169,13 +2152,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2183,13 +2166,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2197,13 +2180,13 @@
         <v>50</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2211,13 +2194,13 @@
         <v>51</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2225,13 +2208,13 @@
         <v>52</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2239,13 +2222,13 @@
         <v>53</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2253,10 +2236,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D53" s="7" t="b">
         <v>0</v>
@@ -2267,13 +2250,13 @@
         <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2281,13 +2264,13 @@
         <v>56</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2295,13 +2278,13 @@
         <v>57</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2309,13 +2292,13 @@
         <v>58</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2323,10 +2306,10 @@
         <v>59</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D58" s="3" t="b">
         <v>1</v>
@@ -2337,13 +2320,13 @@
         <v>60</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2351,13 +2334,13 @@
         <v>61</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2365,13 +2348,13 @@
         <v>62</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2379,13 +2362,13 @@
         <v>63</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2393,10 +2376,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D63" s="7" t="b">
         <v>1</v>
@@ -2407,13 +2390,13 @@
         <v>65</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2421,13 +2404,13 @@
         <v>66</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2435,13 +2418,13 @@
         <v>67</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2449,13 +2432,13 @@
         <v>68</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2463,13 +2446,13 @@
         <v>69</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2477,13 +2460,13 @@
         <v>70</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2491,13 +2474,13 @@
         <v>71</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2505,13 +2488,13 @@
         <v>72</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2519,13 +2502,13 @@
         <v>73</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2533,13 +2516,13 @@
         <v>74</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2547,13 +2530,13 @@
         <v>75</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2561,13 +2544,13 @@
         <v>76</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2575,13 +2558,13 @@
         <v>77</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2589,13 +2572,13 @@
         <v>78</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2603,13 +2586,13 @@
         <v>79</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
@@ -2617,13 +2600,13 @@
         <v>80</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2631,13 +2614,13 @@
         <v>81</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2645,13 +2628,13 @@
         <v>82</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C81" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2659,13 +2642,13 @@
         <v>83</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2673,13 +2656,13 @@
         <v>84</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2687,13 +2670,13 @@
         <v>85</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2701,13 +2684,13 @@
         <v>86</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2715,13 +2698,13 @@
         <v>87</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2729,13 +2712,13 @@
         <v>88</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2743,13 +2726,13 @@
         <v>89</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2757,13 +2740,13 @@
         <v>90</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2771,13 +2754,13 @@
         <v>91</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2785,13 +2768,13 @@
         <v>92</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="203" x14ac:dyDescent="0.35">
@@ -2799,13 +2782,13 @@
         <v>93</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>134</v>
+        <v>327</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="87" x14ac:dyDescent="0.35">
@@ -2813,13 +2796,13 @@
         <v>94</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2827,13 +2810,13 @@
         <v>95</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2841,13 +2824,13 @@
         <v>96</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2855,13 +2838,13 @@
         <v>97</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2869,13 +2852,13 @@
         <v>98</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2883,13 +2866,13 @@
         <v>99</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2897,13 +2880,13 @@
         <v>100</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2911,13 +2894,13 @@
         <v>101</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2925,13 +2908,13 @@
         <v>102</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2939,13 +2922,13 @@
         <v>103</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2953,13 +2936,13 @@
         <v>104</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2967,13 +2950,13 @@
         <v>105</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2981,10 +2964,10 @@
         <v>106</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D105" s="8" t="b">
         <v>1</v>
@@ -2995,13 +2978,13 @@
         <v>107</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3009,13 +2992,13 @@
         <v>108</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -3023,13 +3006,13 @@
         <v>109</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -3037,13 +3020,13 @@
         <v>110</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3051,13 +3034,13 @@
         <v>111</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3065,13 +3048,13 @@
         <v>112</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -3079,13 +3062,13 @@
         <v>113</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3093,13 +3076,13 @@
         <v>114</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -3107,13 +3090,13 @@
         <v>115</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3121,13 +3104,13 @@
         <v>116</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3135,13 +3118,13 @@
         <v>117</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3149,13 +3132,13 @@
         <v>118</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3163,13 +3146,13 @@
         <v>119</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3177,13 +3160,13 @@
         <v>120</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3191,13 +3174,13 @@
         <v>121</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3205,13 +3188,13 @@
         <v>122</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3219,13 +3202,13 @@
         <v>123</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3233,13 +3216,13 @@
         <v>124</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -3247,13 +3230,13 @@
         <v>125</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -3261,13 +3244,13 @@
         <v>126</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3275,13 +3258,13 @@
         <v>127</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>195</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -3289,13 +3272,13 @@
         <v>128</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -3303,13 +3286,13 @@
         <v>129</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3317,13 +3300,13 @@
         <v>130</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -3331,13 +3314,13 @@
         <v>131</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3345,13 +3328,13 @@
         <v>132</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3359,13 +3342,13 @@
         <v>133</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3373,13 +3356,13 @@
         <v>134</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3387,13 +3370,13 @@
         <v>135</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3401,13 +3384,13 @@
         <v>136</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -3415,13 +3398,13 @@
         <v>137</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3429,13 +3412,13 @@
         <v>138</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3443,13 +3426,13 @@
         <v>139</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3457,13 +3440,13 @@
         <v>140</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -3471,13 +3454,13 @@
         <v>141</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3485,13 +3468,13 @@
         <v>142</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3499,13 +3482,13 @@
         <v>143</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3513,13 +3496,13 @@
         <v>144</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3527,13 +3510,13 @@
         <v>145</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3541,13 +3524,13 @@
         <v>146</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3555,13 +3538,13 @@
         <v>147</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3569,13 +3552,13 @@
         <v>148</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3583,13 +3566,13 @@
         <v>149</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3597,13 +3580,13 @@
         <v>150</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3611,13 +3594,13 @@
         <v>151</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -3625,13 +3608,13 @@
         <v>152</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3639,13 +3622,13 @@
         <v>153</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3653,13 +3636,13 @@
         <v>154</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3667,13 +3650,13 @@
         <v>155</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3681,13 +3664,13 @@
         <v>156</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3695,13 +3678,13 @@
         <v>157</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3709,13 +3692,13 @@
         <v>158</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -3723,13 +3706,13 @@
         <v>159</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -3737,13 +3720,13 @@
         <v>160</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -3751,13 +3734,13 @@
         <v>161</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3765,13 +3748,13 @@
         <v>162</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -3779,13 +3762,13 @@
         <v>163</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -3793,13 +3776,13 @@
         <v>164</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3809,10 +3792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7745E85A-AD7C-4EC7-A4A6-DEAEFD01637B}">
-  <dimension ref="A2:A31"/>
+  <dimension ref="A2:A28"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3825,12 +3808,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
@@ -3841,12 +3824,12 @@
     </row>
     <row r="7" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
@@ -3857,12 +3840,12 @@
     </row>
     <row r="12" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
@@ -3870,27 +3853,27 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
@@ -3899,33 +3882,19 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="18"/>
     </row>
-    <row r="27" spans="1:1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>330</v>
-      </c>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://perceptio-my.sharepoint.com/personal/andres_giraldo_perceptio_net/Documents/Clientes/Doc's_BANCO/Python/App respuestas examen banco/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE8428F-A2DC-4B29-8CE7-B665DD6C7FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{AFE8428F-A2DC-4B29-8CE7-B665DD6C7FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B60B673-AA40-457E-BA54-807266E0672D}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="321">
   <si>
     <t>Reserved</t>
   </si>
@@ -91,11 +90,6 @@
   </si>
   <si>
     <t>Pilot light</t>
-  </si>
-  <si>
-    <t>Se ha unido a una empresa de software recién formada como arquitecto de soluciones. Es una empresa pequeña y usted es el único empleado con experiencia en AWS.
-El propietario le ha solicitado sus recomendaciones para asegurarse de que los recursos de AWS se implementen para mantenerse de manera proactiva dentro del presupuesto.
-¿Qué servicio de AWS puede utilizar para asegurarse de no tener sobrecostos para sus recursos de AWS?</t>
   </si>
   <si>
     <t>AWS Budgets</t>
@@ -438,9 +432,6 @@
     <t>Durante el proceso de compilación de software</t>
   </si>
   <si>
-    <t>Seleccione las afirmaciones correctas entre Entrega Continua (Continuous Delivery) e Implementación Continua (Continuous Deployment). Seleccione 3 opciones.</t>
-  </si>
-  <si>
     <t>La entrega Continua (Continuous Delivery) es una práctica de desarrollo de software donde los cambios de código son construidos, probados y preparados automáticamente para su salida a producción y esta debe estar aprobada por el Product Owner.
 Para que exista implementación Continua (Continuous Deployment), antes debe haber Entrega Continua (Continuous Delivery), y en cualquiera de los casos debe haber una buena integración Continua (Continuous Integration).
 En la implementación Continua (Continuous Deployment), la premisa es ir liberando gradualmente, y si algún usuario tiene algún problema, entonces se hace rollback y el feedback llega al equipo desarrollador para que corrija el problema.</t>
@@ -942,15 +933,9 @@
     <t>La definición: "Debilidad de un sistema de información, componente tecnológico, procesos o personas que pueden ser explotadas por una o más amenazas ¿A cual de los siguientes términos corresponde?</t>
   </si>
   <si>
-    <t>¿Cuál de los siguientes sería el principio a aplicar?</t>
-  </si>
-  <si>
     <t>Cuando se intenta asegurar cada una de las capas que componen el sistema o servicio, ¿Cuál de los siguientes sería el principio a aplicar?</t>
   </si>
   <si>
-    <t>¿A cuál de los siguientes principios de diseño seguro corresponde de la anterior afirmación?</t>
-  </si>
-  <si>
     <t>"Eventualmente un sistema fallará, pero deberá hacerlo de forma segura. La pérdida de funcionalidad no debe implicar pérdida de la seguridad." ¿A cuál de los siguientes principios de diseño seguro corresponde de la anterior afirmación?</t>
   </si>
   <si>
@@ -966,21 +951,12 @@
     <t>Principio de desarrollo seguro para limitar los privilegios a una persona o proceso para para completar una tarea por un tiempo determinado:</t>
   </si>
   <si>
-    <t>Dada esta afirmación. ¿A cuál de los siguientes principios de diseño seguro corresponde?</t>
-  </si>
-  <si>
     <t>Los mecanismos de seguridad no deben añadir dificultad al acceso de un recurso, o de ser necesario se debe ocultar la complejidad introducida por los mecanismos de seguridad. Dada esta afirmación. ¿A cuál de los siguientes principios de diseño seguro corresponde?</t>
   </si>
   <si>
     <t>¿Cuál de las siguientes directivas del encabezado de control de caché de la respuesta HTTP indica que el recurso no se puede almacenar en caché?</t>
   </si>
   <si>
-    <t>Restringir el uso de métodos POST y GET, facilitando que desde el método GET se pueda</t>
-  </si>
-  <si>
-    <t>eliminar datos y no usar nombres de usuario, contraseñas o token de sesión en la URL, son prácticas que se deberían seguir para diseñar servicios web RESTful seguros.</t>
-  </si>
-  <si>
     <t>¿Cuál de los siguientes códigos de estado HTTP significa SIN CONTENIDO, cuando el cuerpo de la respuesta está vacio, por ejemplo, una solicitud DELETE?</t>
   </si>
   <si>
@@ -1020,38 +996,32 @@
     <t>Política IAM asociado a instancias recién creadas con permiso para S3 y DinamoDB.</t>
   </si>
   <si>
-    <t>¿Cómo se puede comprovar el estado de este servicio?</t>
-  </si>
-  <si>
     <t>Usted sospecha que uno de los servicios de AWS que utiliza su empresa no funciona. ¿Cómo se puede comprobar el estado de este servicio?</t>
   </si>
   <si>
     <t>"End-of-selection" se usa para mejorar la generación, la funcionalidad y la legibilidad de los informes</t>
   </si>
   <si>
-    <t>Una liga de béisbol profesional ha optado por utilizar una base de datos de documentos y valores clave para el almacenamiento, el procesamiento y la entrega de datos.
-Muchos de los requisitos de datos implican un procesamiento de datos de alta velocidad, como un sistema de radar Doppler que muestrea la posición de la pelota de béisbol 2000 veces por segundo.
-¿Qué almacenamiento de datos de AWS puede cumplir con estos requisitos?</t>
-  </si>
-  <si>
-    <t>Una nueva empresa emergente decide utilizar AWS para alojar su aplicación web. Configuran una VPC y dos subredes dentro de la VPC. También conectan un internet gateway a la VPC. En la primera subred, crean una instancia EC2 para alojar una aplicación web. Hay una ACL de red y un grupo de seguridad, que tienen la entrada salida adecuadas hacia y desde Internet. Hay una ruta en la tabla de enrutamiento hacia el internet gateway.
-Las instancias EC2 agregadas a la subred deben tener una dirección IP única a nivel mundial para garantizar el acceso a internet.
-¿Cuál no es una dirección IP única a nivel mundial?</t>
-  </si>
-  <si>
-    <t>Está administrando el almacenamiento de datos para su empresa y hay muchos volúmenes de EBS. Sus líderes le han dado algunos requisitos nuevos.
-Es necesario monitorear ciertas métricas en los volúmenes de EBS, y el equipo de bases de datos debe recibir una notificación por correo electrónico cuando se superen ciertos umbrales. ¿Qué servicios de AWS se pueden configurar para cumplir con estos requisitos?</t>
-  </si>
-  <si>
-    <t>Seleccione las afirmaciones correctas entre Entrega Continua(Continuous Delivery) e
-Implementación Continua(Continuous Deployment). Seleccione 3 opciones.</t>
+    <t>Está administrando el almacenamiento de datos para su empresa y hay muchos volúmenes de EBS. Sus líderes le han dado algunos requisitos nuevos. Es necesario monitorear ciertas métricas en los volúmenes de EBS, y el equipo de bases de datos debe recibir una notificación por correo electrónico cuando se superen ciertos umbrales. ¿Qué servicios de AWS se pueden configurar para cumplir con estos requisitos?</t>
+  </si>
+  <si>
+    <t>Seleccione las afirmaciones correctas entre Entrega Continua(Continuous Delivery) e Implementación Continua(Continuous Deployment). Seleccione 3 opciones.</t>
+  </si>
+  <si>
+    <t>Una nueva empresa emergente decide utilizar AWS para alojar su aplicación web. Configuran una VPC y dos subredes dentro de la VPC. También conectan un internet gateway a la VPC. En la primera subred, crean una instancia EC2 para alojar una aplicación web. Hay una ACL de red y un grupo de seguridad, que tienen la entrada salida adecuadas hacia y desde Internet. Hay una ruta en la tabla de enrutamiento hacia el internet gateway. Las instancias EC2 agregadas a la subred deben tener una dirección IP única a nivel mundial para garantizar el acceso a internet. ¿Cuál no es una dirección IP única a nivel mundial?</t>
+  </si>
+  <si>
+    <t>Se ha unido a una empresa de software recién formada como arquitecto de soluciones. Es una empresa pequeña y usted es el único empleado con experiencia en AWS. El propietario le ha solicitado sus recomendaciones para asegurarse de que los recursos de AWS se implementen para mantenerse de manera proactiva dentro del presupuesto. ¿Qué servicio de AWS puede utilizar para asegurarse de no tener sobrecostos para sus recursos de AWS?</t>
+  </si>
+  <si>
+    <t>Una liga de béisbol profesional ha optado por utilizar una base de datos de documentos y valores clave para el almacenamiento, el procesamiento y la entrega de datos. Muchos de los requisitos de datos implican un procesamiento de datos de alta velocidad, como un sistema de radar Doppler que muestrea la posición de la pelota de béisbol 2000 veces por segundo. ¿Qué almacenamiento de datos de AWS puede cumplir con estos requisitos?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,14 +1051,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1104,18 +1068,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1195,12 +1147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1208,6 +1155,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1491,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1520,8 +1473,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>309</v>
+      <c r="B2" s="17" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -1534,8 +1487,8 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>310</v>
+      <c r="B3" s="18" t="s">
+        <v>303</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>14</v>
@@ -1548,8 +1501,8 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>311</v>
+      <c r="B4" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
@@ -1562,8 +1515,8 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>312</v>
+      <c r="B5" s="18" t="s">
+        <v>305</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
@@ -1576,8 +1529,8 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>313</v>
+      <c r="B6" s="17" t="s">
+        <v>306</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
@@ -1587,40 +1540,40 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="174" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="122" customHeight="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>314</v>
+      <c r="B8" s="20" t="s">
+        <v>307</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="115" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>316</v>
+      <c r="B9" s="18" t="s">
+        <v>309</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>14</v>
@@ -1629,12 +1582,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="180.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>317</v>
+      <c r="B10" s="20" t="s">
+        <v>310</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
@@ -1648,63 +1601,63 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>18</v>
+        <v>319</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>318</v>
+      <c r="B12" s="19" t="s">
+        <v>311</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>319</v>
+      <c r="B13" s="18" t="s">
+        <v>312</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>322</v>
+      <c r="B14" s="17" t="s">
+        <v>314</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -1713,12 +1666,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>14</v>
@@ -1732,7 +1685,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>1</v>
@@ -1746,13 +1699,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1760,13 +1713,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1774,13 +1727,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -1788,7 +1741,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>1</v>
@@ -1802,13 +1755,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1816,7 +1769,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>1</v>
@@ -1830,13 +1783,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1844,10 +1797,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7" t="b">
         <v>1</v>
@@ -1857,14 +1810,14 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>294</v>
+      <c r="B26" s="17" t="s">
+        <v>292</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1872,27 +1825,27 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>296</v>
+      <c r="B28" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -1900,27 +1853,27 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>299</v>
+      <c r="B30" s="17" t="s">
+        <v>295</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1928,27 +1881,27 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>301</v>
+      <c r="B32" s="17" t="s">
+        <v>297</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -1956,13 +1909,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -1970,13 +1923,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -1984,27 +1937,27 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>289</v>
+      <c r="B36" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2026,13 +1979,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2040,13 +1993,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2054,13 +2007,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2068,13 +2021,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2082,13 +2035,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2096,13 +2049,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2110,13 +2063,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2124,27 +2077,27 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="18" t="s">
-        <v>285</v>
+      <c r="B46" s="17" t="s">
+        <v>283</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="116" x14ac:dyDescent="0.35">
@@ -2152,13 +2105,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2166,13 +2119,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2180,13 +2133,13 @@
         <v>50</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2194,13 +2147,13 @@
         <v>51</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2208,13 +2161,13 @@
         <v>52</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2222,13 +2175,13 @@
         <v>53</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2236,10 +2189,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="7" t="b">
         <v>0</v>
@@ -2250,13 +2203,13 @@
         <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2264,27 +2217,27 @@
         <v>56</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>57</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -2292,13 +2245,13 @@
         <v>58</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2306,10 +2259,10 @@
         <v>59</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" s="3" t="b">
         <v>1</v>
@@ -2320,13 +2273,13 @@
         <v>60</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2334,13 +2287,13 @@
         <v>61</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2348,13 +2301,13 @@
         <v>62</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2362,13 +2315,13 @@
         <v>63</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2376,10 +2329,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" s="7" t="b">
         <v>1</v>
@@ -2390,13 +2343,13 @@
         <v>65</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2404,13 +2357,13 @@
         <v>66</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2418,13 +2371,13 @@
         <v>67</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2432,13 +2385,13 @@
         <v>68</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2446,13 +2399,13 @@
         <v>69</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2460,13 +2413,13 @@
         <v>70</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2474,13 +2427,13 @@
         <v>71</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2488,13 +2441,13 @@
         <v>72</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2502,13 +2455,13 @@
         <v>73</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2516,13 +2469,13 @@
         <v>74</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2530,13 +2483,13 @@
         <v>75</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2544,13 +2497,13 @@
         <v>76</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -2558,13 +2511,13 @@
         <v>77</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2572,13 +2525,13 @@
         <v>78</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2586,13 +2539,13 @@
         <v>79</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
@@ -2600,13 +2553,13 @@
         <v>80</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2614,13 +2567,13 @@
         <v>81</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2628,13 +2581,13 @@
         <v>82</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -2642,13 +2595,13 @@
         <v>83</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -2656,13 +2609,13 @@
         <v>84</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2670,13 +2623,13 @@
         <v>85</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2684,13 +2637,13 @@
         <v>86</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2698,13 +2651,13 @@
         <v>87</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2712,13 +2665,13 @@
         <v>88</v>
       </c>
       <c r="B87" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2726,13 +2679,13 @@
         <v>89</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2740,13 +2693,13 @@
         <v>90</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2754,13 +2707,13 @@
         <v>91</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2768,13 +2721,13 @@
         <v>92</v>
       </c>
       <c r="B91" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="203" x14ac:dyDescent="0.35">
@@ -2782,13 +2735,13 @@
         <v>93</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="87" x14ac:dyDescent="0.35">
@@ -2796,13 +2749,13 @@
         <v>94</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2810,13 +2763,13 @@
         <v>95</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2824,13 +2777,13 @@
         <v>96</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2838,13 +2791,13 @@
         <v>97</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2852,13 +2805,13 @@
         <v>98</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2866,13 +2819,13 @@
         <v>99</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2880,13 +2833,13 @@
         <v>100</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -2894,13 +2847,13 @@
         <v>101</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2908,13 +2861,13 @@
         <v>102</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2922,13 +2875,13 @@
         <v>103</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2936,13 +2889,13 @@
         <v>104</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -2950,13 +2903,13 @@
         <v>105</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2964,10 +2917,10 @@
         <v>106</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D105" s="8" t="b">
         <v>1</v>
@@ -2978,13 +2931,13 @@
         <v>107</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2992,13 +2945,13 @@
         <v>108</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -3006,13 +2959,13 @@
         <v>109</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -3020,13 +2973,13 @@
         <v>110</v>
       </c>
       <c r="B109" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3034,13 +2987,13 @@
         <v>111</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3048,13 +3001,13 @@
         <v>112</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -3062,13 +3015,13 @@
         <v>113</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3076,13 +3029,13 @@
         <v>114</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -3090,13 +3043,13 @@
         <v>115</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3104,13 +3057,13 @@
         <v>116</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3118,13 +3071,13 @@
         <v>117</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3132,13 +3085,13 @@
         <v>118</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3146,13 +3099,13 @@
         <v>119</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3160,13 +3113,13 @@
         <v>120</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3174,13 +3127,13 @@
         <v>121</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3188,13 +3141,13 @@
         <v>122</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3202,13 +3155,13 @@
         <v>123</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3216,13 +3169,13 @@
         <v>124</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C123" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -3230,13 +3183,13 @@
         <v>125</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -3244,13 +3197,13 @@
         <v>126</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3258,13 +3211,13 @@
         <v>127</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -3272,13 +3225,13 @@
         <v>128</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -3286,13 +3239,13 @@
         <v>129</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3300,13 +3253,13 @@
         <v>130</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -3314,13 +3267,13 @@
         <v>131</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -3328,13 +3281,13 @@
         <v>132</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3342,13 +3295,13 @@
         <v>133</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3356,13 +3309,13 @@
         <v>134</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3370,13 +3323,13 @@
         <v>135</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3384,13 +3337,13 @@
         <v>136</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -3398,13 +3351,13 @@
         <v>137</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3412,13 +3365,13 @@
         <v>138</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3426,13 +3379,13 @@
         <v>139</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3440,13 +3393,13 @@
         <v>140</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -3454,13 +3407,13 @@
         <v>141</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3468,13 +3421,13 @@
         <v>142</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3482,13 +3435,13 @@
         <v>143</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3496,13 +3449,13 @@
         <v>144</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3510,13 +3463,13 @@
         <v>145</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3524,13 +3477,13 @@
         <v>146</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3538,13 +3491,13 @@
         <v>147</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3552,13 +3505,13 @@
         <v>148</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3566,13 +3519,13 @@
         <v>149</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -3580,13 +3533,13 @@
         <v>150</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3594,13 +3547,13 @@
         <v>151</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -3608,13 +3561,13 @@
         <v>152</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3622,13 +3575,13 @@
         <v>153</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3636,13 +3589,13 @@
         <v>154</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3650,13 +3603,13 @@
         <v>155</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3664,13 +3617,13 @@
         <v>156</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3678,13 +3631,13 @@
         <v>157</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -3692,13 +3645,13 @@
         <v>158</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -3706,13 +3659,13 @@
         <v>159</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="58" x14ac:dyDescent="0.35">
@@ -3720,13 +3673,13 @@
         <v>160</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -3734,13 +3687,13 @@
         <v>161</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3748,13 +3701,13 @@
         <v>162</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -3762,13 +3715,13 @@
         <v>163</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -3776,125 +3729,14 @@
         <v>164</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7745E85A-AD7C-4EC7-A4A6-DEAEFD01637B}">
-  <dimension ref="A2:A28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="158.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-    </row>
-    <row r="12" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
